--- a/Scripts/python/SourceTables/Codexes.xlsx
+++ b/Scripts/python/SourceTables/Codexes.xlsx
@@ -924,450 +924,6 @@
     <t>Поздняя весна</t>
   </si>
   <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +10\nАТК +82\n\nСтаты (изучено):\nHP +57\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +10\nКрит +44\n\nСтаты (изучено):\nHP +57\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +10\nПробой +20\n\nСтаты (изучено):\nАТК +28\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +10\nАТК +82\n\nСтаты (изучено):\nАТК +28\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +10\nКрит +44\n\nСтаты (изучено):\nКрит +15\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +20\nHP +162\n\nСтаты (изучено):\nКрит +15\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +82\nHP +162\n\nСтаты (изучено):\nУКЛ +30\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +10\nHP +162\n\nСтаты (изучено):\nУКЛ +30\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +7\nАТК +53\n\nСтаты (изучено):\nHP +37\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +7\nКрит +28\n\nСтаты (изучено):\nHP +37\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +7\nПробой +13\n\nСтаты (изучено):\nАТК +19\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nАТК +53\n\nСтаты (изучено):\nАТК +19\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nКрит +28\n\nСтаты (изучено):\nКрит +10\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +13\nHP +106\n\nСтаты (изучено):\nКрит +10\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +53\nHP +106\n\nСтаты (изучено):\nУКЛ +19\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +7\nКрит +29\nСКР обычной атаки +1,4%\n\nСтаты (изучено):\nATK +30\nHP +60\n\nТип кодекса: Атака\n\n\nНавык\n[Суровый край]\nПри попадании по цели с HP &lt;10% уменьшает их СКР движения и полета на 15% на 3 с.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +14\nHP +110\nCD навыков -1,4%\n\nСтаты (изучено):\nКрит +16\nATK +30\n\nТип кодекса: Атака\n\n\nНавык\n[Скрытый дракон]\nАтака имеет 10% шанс уменьшить эффект входящего лечения цели на 10%, в течение 5 сек.\n\nАктивация навыка сопровождается спецэффектами\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nКрит +11\nHP +43\nСнижение урона +0,6%\n\nСтаты (изучено):\nУКЛ +31\nHP +60\n\nТип кодекса: Атака\n\n\nНавык\n[Союз]\nПовышает урон эйдолонов в бою на 10%.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +14\nHP +110\nСКР обычной атаки +1,4%\n\nСтаты (изучено):\nУКЛ +31\nHP +60\n\nТип кодекса: Атака\n\n\nНавык\n[Натаскивание]\nШанс запечатывания целей при атаке с HP выше 99% на 2,5 с. Активируется на 1 цели раз в 15 сек.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +55\nHP +110\nСКР подготовки +1,4%\n\nСтаты (изучено):\nКрит +16\nУКЛ +31\n\nТип кодекса: Атака\n\n\nНавык\n[Создатель]\nПри атаке есть 40% шанс нанести дополнительный урон 5%\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +18\nCD навыков -0,7%\nHP +146\n\nСтаты (изучено):\nКрит +12\nATK +23\n\nТип кодекса: Поддержка\n\n\nНавык\n[Аромат]\nПри HP &lt; 5% получаемое лечение +5%\n\nАктивация навыка сопровождается спецэффектами\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +9\nCD навыков -0,7%\nATK +73\n\nСтаты (изучено):\nКрит +12\nATK +23\n\nТип кодекса: Поддержка\n\n\nНавык\n[Разлука]\nПовышает шанс уклонения на 2%. Не действует при активации Наваждения.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +8\nКрит +35\nСКР подготовки +0,8%\n\nСтаты (изучено):\nКрит +12\nУКЛ +24\n\nТип кодекса: Атака\n\n\nНавык\n[Хулиганы]\nПовышает урон по оглушенным, оцепеневшим и запечатанным целям на 2%.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nATK +65\nСКР подготовки +0,8%\nHP +129\n\nСтаты (изучено):\nКрит +12\nУКЛ +24\n\nТип кодекса: Атака\n\n\nНавык\n[Сад пустоты]\nПри атаке есть шанс 5% уменьшить ци цели на 4%.\n\nАктивация навыка сопровождается спецэффектами\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nУр. навыка класса +1\nЖивучесть +8\nATK +61\n\nСтаты (изучено):\nATK +17\nHP +34\n\nТип кодекса: Атака\n\n\nНавык\n[Взрыв MP]\nПовышает урон всех навыков, поглощающих MP, на 1%.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +8\nПробой +16\nCD навыков -0,4%\n\nСтаты (изучено):\nКрит +9\nATK +17\n\nТип кодекса: Атака\n\n\nНавык\n[Горящая мана]\nПри попадании снижает MP целей на 30. Если у целей нет MP они получают на 1% больше урона.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +4\nКрит +19\nСнижение урона +0,25%\n\nСтаты (изучено):\nУКЛ +18\nHP +34\n\nТип кодекса: Поддержка\n\n\nНавык\n[Комбо ударов]\nПри использовании навыка есть 5% шанс сократить CD всех навыков на 0,5 сек.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +16\nСКР обычной атаки +0,4%\nHP +129\n\nСтаты (изучено):\nУКЛ +18\nHP +34\n\nТип кодекса: Атака\n\n\nНавык\n[Потрясение]\nПри HP &lt;30% исходящий урон +4%\n\nАктивация навыка сопровождается спецэффектами\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСКР подготовки +0,4%\nATK +65\nHP +129\n\nСтаты (изучено):\nКрит +9\nУКЛ +18\n\nТип кодекса: Поддержка\n\n\nНавык\n[Скорая помощь]\nПовышает лечение целей с HP &lt;20% на 4%\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +12\nАТК +91\n\nСтаты (изучено):\nHP +63\n\nТип кодекса: Поддержка\n\n\nНавык\n[Пир]\nПри входящем уроне, есть 5% шанс увеличить СКР движения на 5% в течении 3 с.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +12\nКрит +48\n\nСтаты (изучено):\nHP +63\n\nТип кодекса: Атака\n\n\nНавык\n[Крит]\nШанс крита +1%.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +12\nПробой +23\n\nСтаты (изучено):\nАТК +32\n\nТип кодекса: Атака\n\n\nНавык\n[Прокол]\nШанс 1% получить 100% МПробой и ФПробой при использовании навыка, в течение 3 секунд\n\nАктивация навыка сопровождается спецэффектами\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +12\nАТК +91\n\nСтаты (изучено):\nАТК +32\n\nТип кодекса: Поддержка\n\n\nНавык\n[Горный проход]\nПовышает СКР генерации ци на 2%.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +12\nКрит +48\n\nСтаты (изучено):\nКрит +17\n\nТип кодекса: Поддержка\n\n\nНавык\n[Байки красоты]\nУсиливает входящее лечение на 1%.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nATK +91\nHP +180\n\nСтаты (изучено):\nУКЛ +33\n\nТип кодекса: Поддержка\n\n\nНавык\n[Раздумья поэта]\nПри входящей атаке, есть 2% шанс активировать иммунитет к замедлению, оглушению, оцепенению, отбрасыванию в течение 2 секунд. Кодекс не активируется одновременно с «Шагом Луны». При совместном исп. в приоритете акт. «Шаг Луны»\n\nАктивация навыка сопровождается спецэффектами\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +12\nHP +180\n\nСтаты (изучено):\nУКЛ +33\n\nТип кодекса: Атака\n\n\nНавык\n[Коллапс]\nПовышает на 2% исходящий урон целям с HP ниже 20%.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад ФКрита +134\nСпад МКрита +134\n\nСтаты (изучено)\nСФКриту +32\nСМКриту +32\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nУр. навыка класса +1\nATK +95\nHP +189\n\nСтаты (изучено):\nATK +23\nHP +46\n\nТип кодекса: Атака\n\n\nНавык\n[Поздравления]\nУрон обычных атак +5%.\n\n\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nМТК +102\n\nСтаты (изучено):\nHP +34\nАТК +17\n\nТип кодекса: Связь\n\n\nНавык\n[Водная нимфа] Получаемые статы от повышения уровня формации созвездия Дуо +5%. Когда формация созвездия Дуо достигнет 10 ур., уровень навыка активного кодекса в слоте [Изменения] повышается на 1. Навык активируется после изучения кодекса.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрита +106\nСМКрита +106\n\nСтаты (изучено):\nАТК +17\nМеткость +17\n\nТип кодекса: Связь\n\n\nНавык\n[Бамбуковая ветвь] Получаемые статы от повышения уровня формации созвездия Трио повышаются на 5%. После того, как формация созвездия Трио достигает 10 ур., уровень навыка активного кодекса в слоте [Разрыв] повышается на 1. Навык активируется после изучения кодекса.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nУр. навыка класса +1\nATK +136\nHP +269\n\nСтаты (изучено):\nATK +30\nHP +60\n\nТип кодекса: Поддержка\n\n\nНавык\n[Красные слёзы]\nВозрождение в течение 3 секунд после смерти с 10% HP и MP. CD: 300 с.\n\nПусть вино льется рекой, а в воздухе кружат цветы персика.\n\n\n\nКодекс не может быть разобран на листы кодекса.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nАТК+55\nCD навыков -1,4%\n\nСтаты (изучено):\nКрит+16\nАТК+30\n\nТип кодекса: Атака\n\n\nНавык\n[Разворот]\nОтражает 4% входящего урона (до 10000) на атакующего.\n\nВладыке уготовано предотвратить беду.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nКрит+29\nСКР подготовки +1,4%\n\nСтаты (изучено)\nКрит +16\nУКЛ +31\n\nТип кодекса: Атака\n\n\nНавык\n[Мультиудар]\nПри атаке навыком врагам в радиусе 4 м. вокруг жертвы наносится урон в 8% урона навыка. Если навык поражает сразу несколько целей, эффект мультиудара срабатывает не чаще 1 раза каждые 0,5 с.\n\nИсточник божественного знания.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +23\nHP +343\nАТК +173\n\nСтаты (изучено):\nHP +60\nАТК +30\n\nТип кодекса: Атака\n\n\nНавык\n[Возмездие]\nВ течение 10 с. после получения или нанесения урона ставит 1 метку в секунду, следующая после 10 меток атака наносит в обход защиты 3000 урона. Урон всем целям, кроме игроков, х10.\n\nНегодяям воздастся по их заслугам.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +23\nHP +343\nАТК +173\n\nСтаты (изучено):\nHP +60\nАТК +30\nУдача +2\n\nТип кодекса: Поддержка\n\n\nНавык\n[Покровительство]\nУдача +40. Навык активируется после изучения кодекса.\n\nКрылья дракона укроют от всех бед.\n\n\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +115\nЗлость +14\nСвирепость +13\n\nСтаты (изучено):\nЗлость +3\nСвирепость +3\n\n\nНавык\n[Самозащита]\nПри HP ниже 20% распределяет 50% входящего урона по случайным игрокам (макс. 3) в радиусе 6 м, длится 1 с., срабатывает 1 раз в 180 с.\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nКрит +92\nHP +342\nСнижение урона +0,5%\n\nСтаты (изучено):\nУклонение +31\nHP +60\n\n\nНавык\n[Преследование]\nПри нанесении крит. урона существует 40% шанс активировать эффект [Преследование], который увеличивает критический урон на 20% в течение 5 сек. (при использовании эффекта [Преследование], эффект навыка «Рия и алые губы» временно недействителен)\n\nГордой птице не страшны порывы ветра.\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +173\nПробой +44\n\nСтаты (изучено):\nАтака +30\nПробой +7\n\n\nНавык\n[Неистовая буря]\nЕсли урон, получаемый целью в течение 10 с., выше 50% ее макс. HP, цель дополнительно получает урон в размере 1% макс. HP, игнорирующий защиту. Макс. доступно 80000 урона. CD: 15 с.\n\nСвист мечей пьянит сильнее, чем вино.\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nHP +342\n\nСтаты (изучено):\nЖивучесть +4\nHP +60\n\n\nНавык\n[Усмирение]\nПри потере 50% макс. HP атакует макс. 6 окружающих врагов в радиусе 8 м., нанося маг. урон в размере 1% от своего макс. HP и оглушая на 0,9 сек. Урон игнорирует защиту. Если в течение 30 сек. урон не был получен, он обнуляется. CD: 55 сек.\n\nНе стоит бояться шума дождя в лесной чаще. Запой песню громче и продолжай свой путь.\n\nКодекс не может быть разобран на листы кодекса.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +22\nЖивучесть +22\n\nСтаты (изучено):\nСила/Магия/Ловкость +4\nЖивучесть +4\n\n\nНавык\n[Лечебные цветы]\nПосле каждых восстановленных лечением 50% HP (лечение эйдолонов не учитывается) под ногами вырастает лечебный цветок диаметром 4 м., который в течение 4 сек. восстанавливает HP в размере 1,5% МАТК каждую секунду. Если в течение 30 сек. не начать лечение, лечение обнуляется. CD: 55 сек.\n\nТеплый дождь и ласковый ветерок спровадили зимние холода прочь. Молодые листья ивы и благоухающие цветы сливы радуются приходу весны. С кем разделить беседу за чаркой вина? \n\nКодекс не может быть разобран на листы кодекса.\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЗлость +21\nМеткость +179\n\nСтаты (изучено):\nЗлость +3\nМеткость +31\n\n\nНавык\n[Буря]\nПосле убийств СКР подготовки увеличивается на 1% на 15 сек, эффект суммируется до 3 раз. После наложения 3 слоев, активируется эффект Бури, который дополнительно повышает СКР подготовки еще на 2% и на столько же сокращает перезарядку. Длительность — 8 сек. Убийства запускают эффект бури\n\nМедведица мне освещает путь ковшом, свирепый ветер в спину подгоняет. Я отдохну когда-нибудь потом, скакун мой устали не знает.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nМилость +20\nМеткость +179\n\nСтаты (изучено):\nМилость +3\nМеткость +31\n\n\nНавык\n[Прилив]\nПосле убийств исходящий урон повышается на 1% на 15 с., эффект суммируется до 3 раз, а затем вызывает также эффект прилива, который повышает исходящий урон еще на 1%. Длительность: 8 с. Убийства запускают эффект прилива.\n\n Как много предо мной дорог, какая приведет к покою? Смогу ль попасть на небеса, чтоб плавать среди моря облаков?\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nКодекс не может быть разобран на листы кодекса.\n\nДля синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +235\nМеткость +244\n\nСтаты (изучено):\nЗлость +5\nСвирепость +4\n\nТип кодекса: Атака\n\n\nНавык\n[Молодые года]\nШанс 10% нанести на 1% больше урона целям в радиусе 8 м. Активируется как минимум 1 раз/2 с. Наносит дополнительный неблокируемый урон в размере 2% от максимума HP, если в радиусе 6 м. нет других целей, не активирует другие эффекты, срабатывает 1 раз в 60 с.\n\nАктивация навыка сопровождается спецэффектами.\n\nМой верный конь устало бредет средь высокой травы в лучах заходящего солнца.\nСтрекочут цикады, провожая последние теплые дни.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nАтака +173\n\nСтаты (изучено):\nМеткость +31\nЖивучесть +4\n\nТип кодекса: Поддержка\n\n\nНавык\n[Целительное прикосновение]\nЛечение запускает [Целительное прикосновение]: каждые 3 с. восстанавливает 1460 HP союзнику с наименьшим запасом HP в радиусе 20 м. Длится 6 с. После 10 запусков [Целительного прикосновения] за 60 с. скорость чтения заклинаний +6% на 8 с.\n\nАктивация навыка кодекса сопровождается спецэффектами.\n\n В воздухе разливается дурманящий аромат весенних цветов.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nАТК +173\n\nСтаты (изучено):\nHP +60\nУКЛ +31\n\nТип кодекса: Поддержка\n\n\nНавык\n[Весенняя вода]\nКогда HP &lt;60%, при использовании навыка лечения доступен эффект [Весенняя вода] на 10 с. При лечении других игроков 10% эффективности исцеления превращается в щит, итоговая прочность щита не может превышать 8000, длится 5 с. При лечении себя эффективность превращения снижается до 5%. [Весенняя вода] запускается не чаще 1 р. кажд. 60 с., на щит не влияют статы (защита)\n\nАктивация навыка кодекса сопровождается спецэффектами.\n\nФлейта поет одиноко.\nСердце ее далеко, как облака от земли.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nМилость +20\n\nСтаты (изучено):\nHP +60\nУклонение +31\n\nТип кодекса: Поддержка\n\n\nНавык\n[Осеннее небо]\nПри получении 3 эффектов контроля за 10 с. снимает текущие контроли и в течение 5 с. 2 раза блокирует эффекты контроля. CD: 35 с.\n\nАктивация навыка кодекса сопровождается спецэффектами.\n\nОсеннее небо окутанное пеленой дождя.\nДалекие горы, тихая река и сердце, полное одиночества.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nУклонение +179\n\nСтаты (изучено):\nСтойкость +3\nЗлость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Рубеж]\nПри получении урона есть шанс 8% снять с себя [Проклятие], иммунитет к [Проклятию] на 5 с. Активируется 1 раз каждые 50 с.\n\nАктивация навыка сопровождается спецэффектами\n\nСолнца шар степенно движется к закату.\nВетер громко воет, с неба птиц сгоняя.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nАтака +173\n\nСтаты (изучено):\nАтака +30\nМеткость +31\n\nТип кодекса: Поддержка\n\n\nНавык\n[Наваждение]\nУклонение +1%, меткость +1%\n\nАктивация навыка кодекса сопровождается спецэффектами.\n\nМесяц высоко, сад благоухает.\nВ том саду жена верно мужа ждет.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +22\nАтака +173\n\nСтаты (изучено):\nУклонение +31\nМеткость +31\n\nТип кодекса: Защита\n\n\nНавык\n[Радость]\nПри получении эффекта контроля входящий урон уменьшается на 3% на 5 с. Эффект доступен 1 р. каждые 30 с.\n\nАктивация навыка сопровождается спецэффектами\n\nУтреннее солнце освещает цветущий сад. Птицы радостно встречают новый день. Ветви ивы склонились к самой воде.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +173\nПробой +44\n\nСтаты (изучено):\nАтака +30\nСвирепость +3\n\nТип кодекса: Атака\n\n\nНавык\n[Расцвет]\nСКР генерации ци увеличивается на 4%, после использования навыка ци шанс 4% ускорить CD навыка на 20% на 5 с. CD: 10 с.\n\nАктивация навыка сопровождается спецэффектами\n\nВесенний ветер играет с лепестками цветов абрикоса.\nВесеннее солнце дарит долгожданное тепло.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +228\nЗлость +14\n\nСтаты (изучено):\nМилость +3\nМеткость +31\n\nТип кодекса: Поддержка\n\n\nНавык\n[Шаг луны]\nПри входящем уроне с шансом 2% накладывается эффект "Шаг луны": дает иммунитет к замедлению, оглушению, оцепенению и отбрасыванию, ускоряет движение на 20%, действует 2 с.\n\nАктивация навыка сопровождается спецэффектами\n\nПодобный яшме месяц скрыт в легчайшей дымке.\nОн сегодня ночью осветит мне путь.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +341\nУклонение +178\n\nСтаты (изучено)\nСпад ФКрита +18\nКрит +12\n\nТип кодекса: Защита\n\n\nНавык\n[Солнечная осень]\nКогда HP &lt;50%, при получении урона есть шанс вызова щита, который будет поглощать весь урон в последующие 5 с. (поглощается урон до 100% от HP). После завершения действия щита персонаж будет получать по 5% от поглощенного щитом урона каждую секунду (защита игнорируется). Длится 20 с., срабатывает 1 раз за 60 с.\n\nСолнечная осень. Легкий ветер тревожит иней.\nКогда мечты меня покинут? \nЛодочка плывет устало, в ней красавица младая.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +172\nМеткость +178\n\nСтаты (изучено):\nСпад МКрита +18\nАТК +23\n\nТип кодекса: Поддержка\n\n\nНавык\n[Пьяная весна]\nПосле использования навыка (кроме обычных атак) есть шанс 6% не расходовать ци при использовании навыка ци. Длится 15 с. Эффект доступен 1 р. каждые 60 с.\n\nИ снова до рассвета не дарит сон покой. \nЯблонь аромат густеет под дождем.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +172\nПробой +43\n\nСтаты (изучено):\nКрит +16\nБонус Крит +23\n[Тревожные думы]\nСтаты всех надетых кодексов +4%. Навык активируется после изучения кодекса.\n\nТревога напрасна и приводит к безумию.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +341\nСпад ФКрита +134\n\nСтаты (изучено):\nСМКрит +32\nСФКрит +32\n\nТип кодекса: Защита\n\n\nНавык\n[Гармония]\nКогда собств. HP &gt;50%, кажд.сек. входящий урон -0,5%, суммируется до 5 раз. При получении урона эффект ослабевает на 0,5% кажд.сек. Достигнув нуля, начинает суммироваться заново. Эффект перестает действовать после трансформации (оборотня, друида, эриола).\n\nКогда дневная погода изменчива, вечерние краски становятся только ярче.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад МКрита +134\nУКЛ +178\n\nСтаты (изучено):\nМакс.HP +60\nЗлость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Нефритовая цепь]\nКогда входящий урон за 5 сек. &gt;10% от собств. HP, вы будете отмечать врага с самым высоким HP в пределах 20 м., и каждый входящий урон будет уменьшать HP противника на 0,5%. Длиться 8 с. Суммируется до 10 раз. Состоянии метки длится до 10 с. Если умираете в состоянии метки, входящий урон цели +5%. Длится 5 с. Состоянии метки доступно кажд. 40 сек.\n\nКогда вдруг застучали по листочкам капли дождя? Уже покрыты каплями цветы, да не идут на ум слова.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\n Атака +172\nФКрит +92\n\nТип кодекса: Связь\n\nСтаты (изучено):\nСвирепость +3\nМилость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Утолять жажду]\nПосле приемки повреждения, вызванные эйдолоном, увеличиваются на 3%. Навык активируется после изучения кодекса.\nПосле приемки голод питомца не опускается ниже 80%. Навык активируется после изучения кодекса.\n\nСливовый лес, сладкое и кислое могут утолить жажду.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nБонус Крит +134\nКрит +92\n\nСтаты (изучено):\nЗлость +3\nСтойкость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Мелодия реки]\nКогда HP &lt; 50%, шанс 15% получить при входящем уроне иммунитет к эффектам контроля (кроме превращения). Длится 3 с. CD: 60 сек.\n\nКогда же явилась, над миром сияя, луна? Спрошу небеса, поднимая к ним чашу вина.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +172\nКрит +92\n\nСтаты (изучено):\nПробой +7\nHP +60\n\nТип кодекса: Атака\n\n\nНавык\n[Тёплая весна]\nПри атаке на цели с HP менее 30%, СКР движения и СКР полета увеличиваются на 4,5%, исходящий урон увеличивается на 3% в течение 5 секунд. CD: 40 секунд\n\nВздымает волны к небу все сильней, пух тополя бежит по ветру как ручей.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +172\nКрит +92\n\nСтаты (изучено):\nHP +60\nУКЛ +31\n\nТип кодекса: Защита\n\n\nНавык\n[Винная тоска]\nКогда HP ниже 30% активируется эффект [Кровавая ярость]: снимает с себя все негативные эффекты (контроль, проклятие) и 2 раза блокирует урон, превыш. 5 % от макс. HP. Длится 2 сек. После завершения действия эффекта повышается входящий урон на 20% на 5 сек. CD: 60 с.\n\nОсвещают фонари богатый пир, звучат под звуки музыки стихи поэта, здесь лютней очарован каждый господин, и ты не откажи вина испить за это.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +172\nБонус Крита +134\n\nСтаты (изучено):\nМТК +31\nУКЛ +31\n\nТип кодекса: Атака\n\n\nНавык\n[Зов воды]\nПри нанесении урона 10% шанс увеличить урон стихий на 10%. Длится 5 с. Эффект срабатывает не чаще 1 р. кажд. 45 сек.\n\nКак исчезает с неба и вновь возникает луна, рождаются и гибнут поколения.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +22\nМеткость +178\n\nСтаты (изучено):\nHP +60\nМеткость +31\n\nТип кодекса: Атака\n\n\nНавык\n[Южная песнь]\nШанс крита +1,8%.\n\nСлова режут, словно кинжалы.\nРавнодушие от них лучший щит.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +172\nКрит +92\n\nСтаты (изучено):\nHP +60\nУклонение +31\n\nТип кодекса: Атака\n\n\nНавык\n[Снежный лист]\nУрон от навыков, потребляющих MP, +1,2%, расход MP снижается на 10%.\n\nХаос в сердце излечит дорога.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +172\nHP +341\n\nСтаты (изучено):\nHP +60\nЖивучесть +4\n\nТип кодекса: Поддержка\n\n\nНавык\n[Жетон сливы]\nСоздает ударную волну вокруг союзной цели лечения, нанося врагам в радиусе 8 м вокруг урон силой 10% АТК. CD: 5 сек.\n\nЧистота снегов красит любой пейзаж.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nСпад ФКрита +89\nСпад МКрита +89\n\nСтаты (изучено):\nHP +60\nУКЛ +31\n\nТип кодекса: Атака\n\n\nНавык\n[Песнь ветра] с шансом 10% наносит на 2% больше урона и активирует у цели эффект [Всевидящее око] на 60 с. [Всевидящее око]: после 1 активации исчезновения в течение 15 с. блокирует повторную активацию эффекта.\nЭтот эффект после срабатывания рассеивает [Всевидящее око], активируя перезарядку навыка на 30 с.\n\nСлова режут, словно кинжалы. Равнодушие от них лучший щит.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +15\nКрит +61\nАТК +115\n\nСтаты (изучено):\nHP +60\nМТК +31\n\nТип кодекса: Атака\n\n\nНавык\n[Цветы весны] При использовании атакующего навыка (кроме обычн. атаки) шанс 10% активировать статус [Цветы весны]: шанс крита +10% на 4 с. Статус снимается после 10 критов. CD: 45 с.\n\nХаос в сердце излечит дорога.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nСпад ФКрита +89\nСпад МКрита +89\n\nСтаты (изучено):\nHP +60\nУклонение +31\n\nТип кодекса: Атака\n\n\nНавык\n[Благая весть] При нанесении урона, если цель – босс-монстр, то есть шанс 20% нанести цели доп. урон в размере 40% от АТК. Если цель – обычный монстр, то есть шанс 20% нанести цели и врагам в радиусе 3 м от нее урон в размере 16% АТК. CD: 2 с.\n\nВ летних сумерках жизнь оживает. Распускаются ночные цветы, люди прогуливаются под луной, хищники выходят на охоту.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +341\nАТК +172\n\nСтаты (изучено):\nСпад ФКрита +23\nКрит +26\n\nТип кодекса: Защита\n\n\nНавык\n[Весенняя ясность] При получении в течение 5 сек. маг. урона от игроков других рас, превышающего 25% от HP, активируется эффект [Оберег].\n[Оберег]: маг. урон от игроков других рас -30% на 10 сек. CD: 30 сек.\n\nНедолго длится беззаботная весна, и в старости печалям нет конца.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nСпад ФКрита +89\nСпад МКрита +89\n\nСтаты (изучено):\nHP +60\nКрит +16\n\nТип кодекса: Связь\n\n\nНавык\n[Западная река] Статы развития данного свитка кодекса +25%. Навык активируется после изучения кодекса.\n\nБушующие волны обрушивались на одинокий город, а ветер атаковал с неба.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nСФКрит +123\nСМКрит +123\n\nСтаты (изучено):\nHP +60\nАтака +30\n\nТип кодекса: Защита\n\n\nНавык\n[Префектура] При входящей атаке существует 40% шанс снизить урон на 5%.\n\nПыль времен всего лишь тень былого мира.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nСФКрит +123\nСМКрит +123\n\nСтаты (изучено):\nЗлость +4\nСтойкость +4\n\nТип кодекса: Защита\n\n\nНавык\n[Ясная тень] Если HP &lt;60%, при получении урона есть шанс активировать [Лечебную нейтрализацию]. [Лечебная нейтрализация]: 30% получаемого урона от игрока и 3% урона от монстра трансформируются в лечение на 2 с. CD: 60 с.\n\nТень – это чернила, которыми пишет солнце.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +227\nАтака +115\nКрит +61\n\nСтаты (изучено):\nСтКрит +15\nССтКрит +15\n\nТип кодекса: Защита\n\n\nНавык\n[Перламутровые слезы] Нейтрализует урон, после которого HP упали бы ниже 20%, и дает иммунитет на подобный урон еще на 1 с. CD: 90 с.\n\nДаже самого ослепительного света не бывает без тени.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСвирепость +20\nМилость +20\n\nСтаты (изучено):\nАтака +300\nHP +603\n\nТип кодекса: Связь\n\n\nНавык\n[Камень преткновения] Статы изучения значительно увеличиваются. Навык активируется после изучения кодекса.\n\nПорой в твоей душе сомнения встать могут камнем преткновения.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЗлость +21\nСтойкость +21\n\nСтаты (изучено):\nСтКрит +14\nУклонение +31\n\nТип кодекса: Связь\n\n\nНавык\n[Баллада о богах] Увеличивает ССтКрит  от собств. уровня х2. Навык активируется после изучения кодекса.\n\nВластвует рок над смертными и над богами.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСтКрит +55\nHP +227\nБонус СтКрит +60\n\nСтаты (изучено):\nМеткость +31\nУклонение +31\n\nТип кодекса: Атака\n\n\nНавык\n[Тихая роща] При АТК стихий есть 40% шанс нанести 5% доп. урона.\n\nРоща зеленеет, палящим солнцем облита.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +8\nКрит +35\nСКР обычной атаки -0,8%\n\nСтаты (изучено):\nATK +23\nHP +46\n\nТип кодекса: Поддержка\n\n\nНавык\n[Ярость небес]\nПри запуске навыка шанс 10% повысить СКР движения и полета на 5% на 6 с.\n\nАктивация навыка сопровождается спецэффектами.\n\nНебеса покоряются достойнейшим.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nКрит +17\nСнижение урона +0,4%\nHP +63\n\nСтаты (изучено):\nУКЛ +24\nHP +46\n\nТип кодекса: Атака\n\n\nНавык\n[Рия и алые губы]\nПовышает крит. урон на 10%.\n\nАлая кровь пробуждает жажду.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +8\nСКР обычной атаки -0,8%\nHP +129\n\nСтаты (изучено):\nУКЛ +24\nHP +46\n\nТип кодекса: Поддержка\n\n\nНавык\n[Вечные волны]\nИсходящее лечение дает щит в течение 3 секунд. На одну цель можно наложить один Щит. Щиты не могут накапливаться\n\nЛегкий ветер окутывает, даруя защиту.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +11\nСтойкость +55\nМилость +10\n\nСтаты (изучено):\nСтойкость +2\nМилость +2\n\nТип кодекса: Поддержка\n\n\nНавык\n[Завет]\nПосле смерти усиливает 1 случайного союзника в радиусе 20 м, повышая его исходящий урон на 12% на 15 с., срабатывает 1 раз в 180 с.\n\nПечаль уходит, оставляя завет.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад ФКрита +103\nСпад МКрита +103\n\nСтаты (изучено):\nАтака +23\nHP +46\n\nТип кодекса: Защита\n\n\nНавык\n[Мост и луна]\nПосле получения крита есть 30% шанс увеличить ослабление крит. урона на 4% на 5 с. Суммируется 3 р. Эффект срабатывает до 3 р. каждые 45 с. Навык активируется после изучения кодекса.\n\nГде бы ни был каждый из нас, мы всегда будем видеть одну луну.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nМеткость +102\n\nСтаты (изучено)\nСФКрит +18\nСМКрит +18\n\nТип кодекса: Защита\n\n\nНавык\n[Облачная дорога]\nИгрок, получивший в течение 8 сек. 8 ударов, превышающих по урону 5% HP, после крит. урона получает эффект [Пелена облаков] на 4 сек. CD: 60 сек.\n[Пелена облаков]: вход. критический урон снижается до 20% от изначального урона.\n\nЧужое безразличие пробудит чувства даже в нефрите.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +132\nHP +262\n\nСтаты (изучено):\nСпад ФКрита +18\nСпад МКрита +18\n\nТип кодекса: Связь\n\n\nНавык\n[Южный плод] Когда в Мире грез группы появляется префикс расхода MP, эффект удвоения расхода MP -16%. Навык активируется после изучения кодекса.\n\nОглянувшись назад на каменные горы, я не увидел жителей.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +73\nКрит +40\nСокращение CD +0.7%\n\nСтаты (изучено):\nСпад ФКрита +18\nСпад МКрита +18\n\nТип кодекса: Атака\n\n\nНавык\n[Прибрежные волны · Люди] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления людей]. Если на цель уже действует эффект [Подавление людей], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – люди, вы получите доп. эффекты: урон игроков других рас -5%.\n\nТолько читая историю, можно осознать, насколько безграничен мир.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +73\nКрит +40\nСокращение CD +0.7%\n\nСтаты (изучено):\nСпад ФКрита +18\nСпад МКрита +18\n\nТип кодекса: Атака\n\n\nНавык\n[Прибрежные волны · Демоны] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления зооморфов]. Если на цель уже действует эффект [Подавление зооморфов], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – зооморфы, вы получите доп. эффекты: урон игроков других рас -5%.\n\nТолько читая историю, можно осознать, насколько безграничен мир.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +73\nКрит +40\nСокращение CD +0.7%\n\nСтаты (изучено):\nСпад ФКрита +18\nСпад МКрита +18\n\nТип кодекса: Атака\n\n\nНавык\n[Прибрежные волны · Ангелы] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления сидов]. Если на цель уже действует эффект [Подавление сидов], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – сиды, вы получите доп. эффекты: урон игроков других рас -5%.\n\nТолько читая историю, можно осознать, насколько безграничен мир\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +73\nКрит +40\nСокращение CD +0.7%\n\nСтаты (изучено):\nСпад ФКрита +18\nСпад МКрита +18\n\nТип кодекса: Атака\n\n\nНавык\n[Прибрежные волны · Духи] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления древних]. Если на цель уже действует эффект [Подавление древних], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – древние, вы получите доп. эффекты: урон игроков других рас -5%.\n\nТолько читая историю, можно осознать, насколько безграничен мир\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрит +142\nСМКрит +142\n\nСтаты (изучено):\nБонус Крита +18\nКрит +12\n\nТип кодекса: Защита\n\n\nНавык\n[Волнорез · Люди] Есть шанс 20% снизить урон от людей на 20%. Рассеивает эффект [Подавление людей] и дает к нему иммунитет на 10 с. CD: 10 c.\n\nНельзя научиться покорять величественные волны.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрит +142\nСМКрит +142\n\nСтаты (изучено):\nБонус Крита +18\nКрит +12\n\nТип кодекса: Защита\n\n\nНавык\n[Волнорез · Демоны] Есть шанс 20% снизить урон от зооморфов на 20%. Рассеивает эффект [Подавление зооморфов] и дает к нему иммунитет на 10 с. CD: 10 c.\n\nНельзя научиться покорять величественные волны.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрит +142\nСМКрит +142\n\nСтаты (изучено):\nБонус Крита +18\nКрит +12\n\nТип кодекса: Защита\n\n\nНавык\n[Волнорез · Ангелы] Есть шанс 20% снизить урон от сидов на 20%. Рассеивает эффект [Подавление сидов] и дает к нему иммунитет на 10 с. CD: 10 c.\n\nНельзя научиться покорять величественные волны.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрит +142\nСМКрит +142\n\nСтаты (изучено):\nБонус Крита +18\nКрит +12\n\nТип кодекса: Защита\n\n\nНавык\n[Волнорез · Духи] Есть шанс 20% снизить урон от древних на 20%. Рассеивает эффект [Подавление древних] и дает к нему иммунитет на 10 с. CD: 10 c.\n\nНельзя научиться покорять величественные волны.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +262\nСМКрит +142\n\nСтаты (изучено):\nСвирепость +3\nМилость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Путь силы] При получении в течение 5 с. маг. урона от игрока в размере более 40% от макс. HP, последующие 10 с. входящий маг. урон -5%. CD: 30 с.\n\nСимфония ручья обед мой скромный скрасит, но отогнать печали не под силу ей.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +262\nСФКрит +142\n\nСтаты (изучено):\nСвирепость +3\nМилость +3\n\nТип кодекса: Защита\n\n\nНавык\n[Узы крови] При получении в течение 5 с. физ. урона от игрока в размере более 40% от макс. HP, последующие 10 с. входящий физ. урон -5%. CD: 30 с.\n\nВосток и Юг в своей красе блистают, собрав все царства под знамена.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nБуйство +26\nЭгида +26\n\nСтаты (изучено):\nАтака +23\nHP +46\n\nТип кодекса: Защита\n\n\nНавык\n[Улыбка судьбы] При получении урона от монстра, если HP ниже 40%, дается эффект восстановления HP на 5 с., каждую секунду восстанавливая 2% от макс. HP. Эффект срабатывает не чаще 1 раза в 45 с.\n\nНеобязательно иметь крылья, чтобы летать\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nБонус СтКрит +69\nСпад СтКрит +69\n\nСтаты (изучено):\nСтКрит +11\nССтКрит+11\n\nТип кодекса: Атака\n\n\nНавык\n[Древнее предание] В Мире стихий макс. АТК стихий +2%.\n\nЗа окном идет капризный дождь. Но на настроение он не влияет.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nКрит+35\nСКР обычной атаки -0,4%\nHP +129\n\nСтаты (изучено):\nATK +17\nHP +34\n\nТип кодекса: Атака\n\n\nНавык\n[Двойной урон]\nЗапуск навыков доп. расходует 0.5% собств. HP, урон от навыка +2%. Не работает при HP &lt;50%.\n\nАромат вина кружит голову, как полет ласточки.\n\nИз 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nCD навыков -0,4%\nАТК +65\nHP +129\n\nТип кодекса: Защита\n\nСтаты (изучено):\nКрит +9\nАТК +17\n\n\nНавык\n[Судьба]\nСнижает входящий урон при оглушении на 3%.\n\n\n\nБаловням судьбы не страшны дурные предзнаменования.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +8\nКрит +35\nСКР подготовки +0.4%\n\nСтаты (изучено):\nКрит +9\nУКЛ +18\n\nТип кодекса: Атака\n\n\nНавык\n[Весенний голод]\nПри атаке есть 5% шанс выпустить молнию на цель, в результате чего наносится урон ФАТК 40% + МАТК 40%.\n\nАктивация навыка сопровождается спецэффектами\n\nВесенняя гроза знаменует гнев небес.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСвирепость +2\nМилость +2\n\nСтаты (изучено):\nСвирепость +27\nМилость +27\n\nТип кодекса: Связь\n\n\nНавык\n[Грусть]\nТоска предает забвению надетые статы и пробуждает изученные\n\nУлучшение Тоски не влияет на статы (надето) и заметно повышает статы (изучено).\n\nЧуждо благородному герою чувство радости.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад ФКрита +77\nСпад МКрита +77\n\nТип кодекса: Связь\n\nСтаты (изучено):\nHP +34\nУКЛ +17\n\n\nНавык\n[Кодекс дракона]\nУрон по монстрам +1%. Навык активируется после изучения кодекса.\n\nЛегендарный том, хранящий множество секретов.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад ФКрита +77\nСпад МКрита +77\n\nСтаты (изучено): \nАТК +17\nЖивучесть +2\n\nТип кодекса: Поддержка\n\n\nНавык\n[Лебедь]\nЗаменяет Взрыв ци, Небесную ци и Ци демона на Взрыв лебедя; перекрывает текущий эффект, можно применять во время входящего контроля.\n\nВзрыв лебедя: расходует 2 ци, восстанавливает 10% максимума HP, МАТК +22% на 10 с., непобедимость на 2,5 с. (Состояние контроля невозможно в трансформации).\n\nСижу на молитвенном коврике, плат надев из оленьей шкуры.\nВстревоженный лебедь спрятался от огня, а снег ложится на сломанный клинок Эолиана.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nКрит +53\n\nСтаты (изучено):\nСвирепость +2\nМилость +2\n\nТип кодекса: Атака\n\n\nНавык\n[Песнопения] Увеличивает меткость на 1.5 от собственного уровня. Навык активируется после изучения кодекса.\n\nНа берегу реки растет бесчиленное множество цветов\nСобирая цветы я почувствовал себя одиноким\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nБонус Крит +77\nСпад Крита +77\n\nТип кодекса: Связь\n\nСтаты (изучено):\nАТК +17\nHP +34\n\nТип кодекса: Защита\n\n\nНавык\n[Парчовая весна]\nУрон по игрокам другой расы +0,5%, входящий урон от игроков своей расы -0,5%\nНавык активируется после изучения кодекса.\n\nНе хуже красного вина иль самоцветов, дурманят голову весенние цветы. Шелк лепестков бальзамом лег в душе поэта, и жемчугом блестят бутоны полные росы.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nМТК +102\n\nСтаты (изучено):\nУКЛ +17\nПробой +4\n\nТип кодекса: Атака\n\n\nНавык\n[Лунная роза]\nПри нанесении урона 10% шанс нанести доп. физ. или маг. урон по цели (в зависимости от класса) со значением урона, равным наибольшему из пяти стихий (металл, дерево, вода, огонь, земля) * 30% (не действует одновременно с "Весенний голод").\n\nПриплыл однажды челн мой в край далекий, где сливы пышный цвет увидеть можно каждый день. В ночи мне подарил прохладу ветер легкий, и дождик нежен был как по весне капель.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСпад ФКрита +77\nСпад МКрита +77\n\nСтаты (изучено):\nУКЛ +17\nАТК +17\n\nТип кодекса: Защита\n\n\nНавык\n[Ночной полёт]\nКогда HP упало ниже 60%, в течение следующих 2 сек. урон за один удар от игрока не будет превышать 5% собств. HP. Срабатывает 1 р. в 60 сек.\n\nК диким местам свернула дорога, не слышен здесь говор людской. До дома дойти осталось немного, но в душе переполнен тоской.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСМКрит +106\nСФКрит+106\n\nСтаты (изучено):\nСпад ФКрита +13\nСпад МКрита+13\n\nТип кодекса: Защита\n\n\nНавык\n[Воды жизни]\nПерсонаж не получает смертельный урон в течение 8 с. после получения урона от другого игрока, а становится стойким на 2 с. CD: 60 сек. [Стойкость]: HP персонажа не падает ниже 5%. После окончания действия исх. урон и лечение персонажа снижаются на 50%. Действует 15 с. Нельзя развеять.\n\nОсенние воды замедляют поток, вторя природной печали.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nHP +196\n\nСтаты (изучено):\nАТК +17\nЖивучесть +2\n\nТип кодекса: Связь\n\n\nНавык\n[Ветер небытия] Действует в Мире грез (отряд) при наличии префикса «Яд скорпиона» время пребывания персонажа в форме зомби-скорпиона сокращается на 10%. \nВ Мире грез (группа) при наличии префикса «Воплощение время» одержимость персонажа демоном души сокращается на 10%. Навык активируется после изучения кодекса.\n\nВино на радость нам делает смех громче, а песни веселее.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nМеткость +17\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Жертва дождя] Мир грёз: отряд, префикс Магнетизм: персонаж имеет 10% шанс избежать воздействия магнетизма. Мир грёз: отряд, префикс Инь-Ян: персонаж имеет 10% шанс избежать воздействия Инь-Ян. Навык активируется после изучения кодекса.\n\nОдевшись в весенние одежды, взрослые и дети танцуют и призывают дождь.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nСвирепость +2\nМилость +2\n\nТип кодекса: Связь\n\n\nНавык\n[Стремление ввысь] Мир грёз: отряд, префикс Терновый панцирь: исходящий урон персонажа + 4%. Мир грёз: отряд, префикс Погружение в мысли: исходящий урон персонажа + 4%. Навык активируется после изучения кодекса.\n\nДракон взмывает в облака, небо дарует таланты достойным. Видится сквозь снег, слышится сквозь ветер.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nСпад ФКрита +18\nКрит +9\n\nТип кодекса: Связь\n\n\nНавык\n[Карающая длань] Если в Мире грёз: отряд появляется префикс Обращенный щит, то исход. урон персонажа +4%. Если в Мире грёз: отряд появляется префикс Инкарнация, то исход. урон персонажа +4%. Навык активируется после изучения кодекса.\n\nФлейта и меч устроили поединок. Песня флейты полна чувств, а меч способен осуществить кровную месть.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nСпад МКрита +13\nАтака +17\n\nТип кодекса: Связь\n\n\nНавык\n[Морской утес] Мир грёз: отряд, префикс Ересь: воздействие бессилия -10%. Мир грёз: отряд, префикс Бесовство: время наложенного на персонажа эффекта страха -10%. Навык активируется после изучения кодекса.\n\nЯ вижу горы, реки, утес и тайные врата.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nАтака +17\nHP +34\n\nТип кодекса: Связь\n\n\nНавык\n[Тень благоухания] Мир грёз: отряд. При наличии префикса «Карма I» или «Карма II» урон от Правосудия снижается на 10%. Мир грёз: группа. При наличии префикса «Небесная кара» урон от Небесной кары снижается на 10%.\n\nНавык активируется после изучения кодекса.\n\nОдинокое увядание раздирает сердце.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nКрит +9\nБонус Крита +13\n\nТип кодекса: Связь\n\n\nНавык\n[Перемены] Мир грёз: отряд или Мир грёз: группа, префикс Невозврат: время недоступности возрождения после смерти персонажа - 10%. Навык активируется после изучения кодекса.\n\nДрузья, забывшие о мире, словно осенние птицы над водой.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nСФКрит +18\nСМКрит +18\n\nТип кодекса: Связь\n\n\nНавык\n[Простор океана] Мир грёз: отряд, префикс Щит тьмы: исходящий урон игрока + 4%.\nМир грёз: группа, префикс Непогрешимость: исходящий урон игрока + 4%.\nНавык активируется после изучения кодекса.\n\nВетхий дом в глуши, лишь вдалеке видны огни. Пагода возносится до небес, корабли уплывают в закат.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nHP +34\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Созерцание Дхармы] Мир грёз: отряд, префикс Воля неба: входящий рикошетный урон персонажа -10%. Мир грёз: отряд, префикс Воля богов: входящий рикошетный урон персонажа -10%. Навык активируется после изучения кодекса.\n\nНаблюдать за бренным миром смертных, молчаливо созерцать его превращения.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nАтака +99\n\nСтаты (изучено): \nУклонение +17\nМеткость +17\n\nТип кодекса: Связь\n\n\nНавык\n[Мелодия арфы]\nКрит. урон по монстрам +1%.\nНавык активируется после изучения кодекса.\n\nКапли дождя отражают рассвета лучи, пока облака замедляют бег.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +66\nСпад ФКрита +51\nСпад МКрита +51\n\nСтаты (изучено):\nHP +34\nУКЛ +17\n\nТип кодекса: Связь\n\n\nНавык\n[Капли дождя] В древнем тайнике при нанесении урона по монстрам есть 2% шанс доп. нанести урон, равный 500% от АТК. CD: 5 сек. Навык активируется после изучения кодекса.\n\nВозвращаюсь в край родной и слышу новую песню.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСила/Магия/Ловкость +8\nКрит +35\nАТК +66\n\nСтаты (изучено):\nHP +34\nМТК +17\n\nТип кодекса: Связь\n\n\nНавык\n[Прорицатель] Отряды и группы в Мире грёз: урон по боссам и монстрам +1%. Навык активируется после изучения кодекса.\n\nВ захолустье у разбитого моста, нет никого, кто б восхитился красотой цветущей сливы.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nССтКрит +47\nСпад СтКрит +34\n\nСтаты (изучено):\nСтКрит +8\nБонус СтКрит +9\n\nТип кодекса: Связь\n\n\nНавык\n[Песнь рыбака] Повышает крит. стихий на значение, равное ур. собств. персонажа х0,75. Навык активируется после изучения кодекса.\n\nПод персиковым деревом резвиться карп в весенний водах, и белой цапли взмах крыла в горы высотах.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nМеткость +102\n\nСтаты (изучено):\nСФКрит +18\nСМКрит +18\n\nТип кодекса: Связь\n\n\nНавык\n[Летние земли]\nУрон стихий +1%. Навык активируется после изучения кодекса.\n\nУбивает противника ярость, захватывает его богатства жадность.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nHP +196\n\nСтаты (изучено):\nСвирепость +2\nМилость +2\n\nТип кодекса: Защита\n\n\nНавык\n[Осенние мысли]\nПри смерти дает 2 слоя эффекта [Непоколебимости].\n[Непоколебимость]: HP +2%, Сопротивление криту +2%, Ослабление крита +2% на 5 мин. Суммируется до 10 р. При убийстве 1 противника снимается 1 слой эффекта.\nНавык активируется после изучения кодекса. Действует только в Лиге гильдий/Суперлиге гильдий/Войне владений/Войне миров\n\nПод звуки лютни падают капли дождя, в сердце вновь поселилась тоска.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nСпад ФКрита +77\n\nСтаты (изучено):\nСпад МКрита +13\nАТК +17\n\nТип кодекса: Связь\n\n\nНавык\n[Ароматные травы]\nУменьшает маг. урон от игроков другой расы на 1%. Навык активируется после изучения кодекса.\n\nК концу весна идет, увял уж пышный цвет. Я на чужбине уже год, хоть мест прекрасней здешних нет.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nМакс. HP +196\nСпад МКрита +77\n\nСтаты (изучено):\nСпад ФКрита +13\nУКЛ +17\n\nТип кодекса: Связь\n\n\nНавык\n[Тихий восторг]\nЗа 5 сек. получив от игроков урон &gt;50% собств. макс. HP, на следующие 3 сек. вход. урон от игроков -50%. CD: 120 сек. Навык активируется после изучения кодекса.\n\nОсенней ночью звезды как никогда ярки, столичный город освещают фонари.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nМТК +102\n\nСтаты (изучено):\nЗлость +2\nСтойкость +2\n\nТип кодекса: Защита\n\n\nНавык\n[Подлунная флейта] Увеличивает урон по монстрам в радиусе 6 м на 5%. При получении урона от босса в радиусе 6 м, превышающего 50% от HP, урон снижается до 20% от HP. Эффект сниж. урона срабатывает 1 раз в 30 сек.\n\nИсходил я все дороги да истоптал сапоги, но где тебя, мой старый друг, найти.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nHP +196\n\nСтаты (изучено):\nАтака +17\nHP +34\n\nТип кодекса: Связь\n\n\nНавык\n[Ода любви] Если в Мире грёз: отряд присутствует префикс Изгнания, время пребывания персонажа в изгнании сокращается на 10%. Если в Мире грёз: группа присутствует префикс Жатвы, у персонажа есть 10% шанс получить иммунитет к смертельной Жатве. Навык активируется после изучения кодекса.\n\nОдинокое увядание раздирает сердце.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАТК +99\nКрит +53\n\nСтаты (изучено):\nHP +34\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Цвет сливы] Мире грёз команда и Мире грёз группа: урон по монстрам (кроме боссов) +1%. Навык активируется после изучения кодекса.\n\nОдинокое увядание раздирает сердце.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nКрит +53\n\nСтаты (изучено):\nСФКрит +18\nСМКрит +18\n\nТип кодекса: Связь\n\n\nНавык\n[Махровая гардения] На Испытании стихий атака стихий кажд. вида +200 ед. Навык активируется после изучения кодекса.\n\nВ жизни должны быть любовь и увлечения.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nHP +196\nКрит +53\n\nСтаты (изучено):\nМеткость +17\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Частная жизнь] Вход. стихийный урон -1%.\nНавык активируется после изучения кодекса.\n\nДолголетие в древности считалось большой редкостью.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nСФКрит +18\nСМКрит +18\n\nТип кодекса: Связь\n\n\nНавык\n[Воевода] При нанесении физ. урона монстру с шансом 5% на цель накладывается эффект [Пробитие - физ]. Длится 8 сек.\nПри нанесении маг. урона монстру с шансом 5% на цель накладывается эффект [Пробитие - маг]. Длится 8 сек.\n[Пробитие - физ]: ФЗАЩ -40%. Нельзя наложить на стрелка с [Пламенеющим доспехом]. [Пламенеющий доспех] вступает в силу первым.\n[Пробитие - маг]: МЗАЩ -40%. Нельзя наложить на жнеца с [Заходом луны]. [Заход луны] вступает в силу первым. Навык активируется после изучения кодекса.\n\nЛёгкий холод бодрит, мороз суровый пугает.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nУклонение +102\n\nСтаты (изучено):\nHP +34\nМеткость +17\n\nТип кодекса: Связь\n\n\nНавык\n[Непреодолимая воля] Урон, наносимый монстрам в спину, увеличивается на 1%. Урон, получаемый при нахождении перед монстрами, уменьшается на 1%. Навык активируется после изучения кодекса.\n\nНаша жизнь, что вода в быстрой реке.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nHP +196\n\nСтаты (изучено):\nАтака +18\nHP +34\n\nТип кодекса: Связь\n\n\nНавык\n[Сапфировые слёзы] HP химеры в бою увеличивается на (ур. химеры *40 оч. Навык активируется после изучения кодекса.\n\nВсе имеет свой закат.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nАтака +99\nКрит +53\n\nСтаты (изучено):\nHP +34\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Древние сказания] Получаемые осн. статы Созвездия Трио повышаются на 5%. После того, как формация Созвездия Трио достигает 10 ур., уровень навыка активного кодекса в слоте [погибели] повышается на 1. Навык активируется после изучения кодекса.\n\nНет ни единого творения, в основе которого не лежала бы легенда.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nСФКрит +106\nСМКрит +106\n\nСтаты (изучено):\nАТК +17\nМеткость +17\n\nТип кодекса: Связь\n\n\nНавык\n[Призрачная дымка] Получаемые осн. статы Созвездия Дуо повышаются на 5%. После того, как формация Созвездия Дуо достигает 10 ур., уровень навыка активного кодекса в слоте [Кары] повышается на 1. Навык активируется после изучения кодекса.\n\nВоспоминания о древних временах стерты с течением времени.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nМеткость +102\nHP +196\n\nСтаты (изучено):\nСтКрит +8\nУклонение +17\n\nТип кодекса: Связь\n\n\nНавык\n[Сиреневая дымка] При нанесении урона существует 10% шанс игнорирования защиты цели на 2%. Навык активируется после изучения кодекса.\n\nСиреневая дымка на закате таинственностью укрывает ночь.\n\nКодекс не может быть разобран на листы кодекса.</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nПробой +23\nHP +180\n\nСтаты (изучено):\nКрит +17\n\nТип кодекса: Поддержка\n\n\nНавык\n[Минор]\nУскоряет движение на 2%.\n\nЗвук оборванной струны достигнет холодного сердца. \n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nБуйство +18\nАТК +91\n\nСтаты (изучено):\nБуйство +6\n\nТип кодекса: Атака\n\n\nНавык\n[Гуру охоты]\nПри атаке есть 20% шанс нанести 4879 урона целям (не действует на игроков и питомцев)\n\nВодная гладь ловит отражение ветвей ивы и заснеженных слив.\n\n</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +10\nБуйство +16\n\nСтаты (изучено):\nЭгида +5\n\nНа закате жизни останется лишь разбитое сердце.\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nHP +106\n\nСтаты (изучено):\nУКЛ +19\n\nБесстрашие и жажда крови – вот, что кормит воина.\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
-    <t>Статы (надето):\nЖивучесть +7\nБуйство +10\n\nСтаты (изучено):\nБуйство +3\n\nАромат лотосов наполняет сумеречный воздух.\n\nТип кодекса: Связь</t>
-  </si>
-  <si>
     <t>stats_own</t>
   </si>
   <si>
@@ -1702,6 +1258,1976 @@
   </si>
   <si>
     <t>Общее</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Ур. навыка класса +1
+ATK +136
+HP +269
+Статы (изучено):
+ATK +30
+HP +60
+Тип кодекса: Поддержка
+Навык
+[Красные слёзы]
+Возрождение в течение 3 секунд после смерти с 10% HP и MP. CD: 300 с.
+Пусть вино льется рекой, а в воздухе кружат цветы персика.
+Кодекс не может быть разобран на листы кодекса.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +7
+Крит +29
+СКР обычной атаки +1,4%
+Статы (изучено):
+ATK +30
+HP +60
+Тип кодекса: Атака
+Навык
+[Суровый край]
+При попадании по цели с HP &lt;10% уменьшает их СКР движения и полета на 15% на 3 с.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Пробой +14
+HP +110
+CD навыков -1,4%
+Статы (изучено):
+Крит +16
+ATK +30
+Тип кодекса: Атака
+Навык
+[Скрытый дракон]
+Атака имеет 10% шанс уменьшить эффект входящего лечения цели на 10%, в течение 5 сек.
+Активация навыка сопровождается спецэффектами
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+АТК+55
+CD навыков -1,4%
+Статы (изучено):
+Крит+16
+АТК+30
+Тип кодекса: Атака
+Навык
+[Разворот]
+Отражает 4% входящего урона (до 10000) на атакующего.
+Владыке уготовано предотвратить беду.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Крит +11
+HP +43
+Снижение урона +0,6%
+Статы (изучено):
+УКЛ +31
+HP +60
+Тип кодекса: Атака
+Навык
+[Союз]
+Повышает урон эйдолонов в бою на 10%.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Пробой +14
+HP +110
+СКР обычной атаки +1,4%
+Статы (изучено):
+УКЛ +31
+HP +60
+Тип кодекса: Атака
+Навык
+[Натаскивание]
+Шанс запечатывания целей при атаке с HP выше 99% на 2,5 с. Активируется на 1 цели раз в 15 сек.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+Крит+29
+СКР подготовки +1,4%
+Статы (изучено)
+Крит +16
+УКЛ +31
+Тип кодекса: Атака
+Навык
+[Мультиудар]
+При атаке навыком врагам в радиусе 4 м. вокруг жертвы наносится урон в 8% урона навыка. Если навык поражает сразу несколько целей, эффект мультиудара срабатывает не чаще 1 раза каждые 0,5 с.
+Источник божественного знания.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +55
+HP +110
+СКР подготовки +1,4%
+Статы (изучено):
+Крит +16
+УКЛ +31
+Тип кодекса: Атака
+Навык
+[Создатель]
+При атаке есть 40% шанс нанести дополнительный урон 5%
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +23
+HP +343
+АТК +173
+Статы (изучено):
+HP +60
+АТК +30
+Тип кодекса: Атака
+Навык
+[Возмездие]
+В течение 10 с. после получения или нанесения урона ставит 1 метку в секунду, следующая после 10 меток атака наносит в обход защиты 3000 урона. Урон всем целям, кроме игроков, х10.
+Негодяям воздастся по их заслугам.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +23
+HP +343
+АТК +173
+Статы (изучено):
+HP +60
+АТК +30
+Удача +2
+Тип кодекса: Поддержка
+Навык
+[Покровительство]
+Удача +40. Навык активируется после изучения кодекса.
+Крылья дракона укроют от всех бед.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +115
+Злость +14
+Свирепость +13
+Статы (изучено):
+Злость +3
+Свирепость +3
+Навык
+[Самозащита]
+При HP ниже 20% распределяет 50% входящего урона по случайным игрокам (макс. 3) в радиусе 6 м, длится 1 с., срабатывает 1 раз в 180 с.
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Крит +92
+HP +342
+Снижение урона +0,5%
+Статы (изучено):
+Уклонение +31
+HP +60
+Навык
+[Преследование]
+При нанесении крит. урона существует 40% шанс активировать эффект [Преследование], который увеличивает критический урон на 20% в течение 5 сек. (при использовании эффекта [Преследование], эффект навыка «Рия и алые губы» временно недействителен)
+Гордой птице не страшны порывы ветра.
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +173
+Пробой +44
+Статы (изучено):
+Атака +30
+Пробой +7
+Навык
+[Неистовая буря]
+Если урон, получаемый целью в течение 10 с., выше 50% ее макс. HP, цель дополнительно получает урон в размере 1% макс. HP, игнорирующий защиту. Макс. доступно 80000 урона. CD: 15 с.
+Свист мечей пьянит сильнее, чем вино.
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+HP +342
+Статы (изучено):
+Живучесть +4
+HP +60
+Навык
+[Усмирение]
+При потере 50% макс. HP атакует макс. 6 окружающих врагов в радиусе 8 м., нанося маг. урон в размере 1% от своего макс. HP и оглушая на 0,9 сек. Урон игнорирует защиту. Если в течение 30 сек. урон не был получен, он обнуляется. CD: 55 сек.
+Не стоит бояться шума дождя в лесной чаще. Запой песню громче и продолжай свой путь.
+Кодекс не может быть разобран на листы кодекса.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +22
+Живучесть +22
+Статы (изучено):
+Сила/Магия/Ловкость +4
+Живучесть +4
+Навык
+[Лечебные цветы]
+После каждых восстановленных лечением 50% HP (лечение эйдолонов не учитывается) под ногами вырастает лечебный цветок диаметром 4 м., который в течение 4 сек. восстанавливает HP в размере 1,5% МАТК каждую секунду. Если в течение 30 сек. не начать лечение, лечение обнуляется. CD: 55 сек.
+Теплый дождь и ласковый ветерок спровадили зимние холода прочь. Молодые листья ивы и благоухающие цветы сливы радуются приходу весны. С кем разделить беседу за чаркой вина? 
+Кодекс не может быть разобран на листы кодекса.
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Злость +21
+Меткость +179
+Статы (изучено):
+Злость +3
+Меткость +31
+Навык
+[Буря]
+После убийств СКР подготовки увеличивается на 1% на 15 сек, эффект суммируется до 3 раз. После наложения 3 слоев, активируется эффект Бури, который дополнительно повышает СКР подготовки еще на 2% и на столько же сокращает перезарядку. Длительность — 8 сек. Убийства запускают эффект бури
+Медведица мне освещает путь ковшом, свирепый ветер в спину подгоняет. Я отдохну когда-нибудь потом, скакун мой устали не знает.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Милость +20
+Меткость +179
+Статы (изучено):
+Милость +3
+Меткость +31
+Навык
+[Прилив]
+После убийств исходящий урон повышается на 1% на 15 с., эффект суммируется до 3 раз, а затем вызывает также эффект прилива, который повышает исходящий урон еще на 1%. Длительность: 8 с. Убийства запускают эффект прилива.
+ Как много предо мной дорог, какая приведет к покою? Смогу ль попасть на небеса, чтоб плавать среди моря облаков?
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Кодекс не может быть разобран на листы кодекса.
+Для синтеза доступны следующие кодексы 6 ур.: Суровый край, Скрытый дракон, Разворот, Союз, Натаскивание, Мировая скорбь, Создатель, Неистовая буря.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +235
+Меткость +244
+Статы (изучено):
+Злость +5
+Свирепость +4
+Тип кодекса: Атака
+Навык
+[Молодые года]
+Шанс 10% нанести на 1% больше урона целям в радиусе 8 м. Активируется как минимум 1 раз/2 с. Наносит дополнительный неблокируемый урон в размере 2% от максимума HP, если в радиусе 6 м. нет других целей, не активирует другие эффекты, срабатывает 1 раз в 60 с.
+Активация навыка сопровождается спецэффектами.
+Мой верный конь устало бредет средь высокой травы в лучах заходящего солнца.
+Стрекочут цикады, провожая последние теплые дни.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+Атака +173
+Статы (изучено):
+Меткость +31
+Живучесть +4
+Тип кодекса: Поддержка
+Навык
+[Целительное прикосновение]
+Лечение запускает [Целительное прикосновение]: каждые 3 с. восстанавливает 1460 HP союзнику с наименьшим запасом HP в радиусе 20 м. Длится 6 с. После 10 запусков [Целительного прикосновения] за 60 с. скорость чтения заклинаний +6% на 8 с.
+Активация навыка кодекса сопровождается спецэффектами.
+ В воздухе разливается дурманящий аромат весенних цветов.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+АТК +173
+Статы (изучено):
+HP +60
+УКЛ +31
+Тип кодекса: Поддержка
+Навык
+[Весенняя вода]
+Когда HP &lt;60%, при использовании навыка лечения доступен эффект [Весенняя вода] на 10 с. При лечении других игроков 10% эффективности исцеления превращается в щит, итоговая прочность щита не может превышать 8000, длится 5 с. При лечении себя эффективность превращения снижается до 5%. [Весенняя вода] запускается не чаще 1 р. кажд. 60 с., на щит не влияют статы (защита)
+Активация навыка кодекса сопровождается спецэффектами.
+Флейта поет одиноко.
+Сердце ее далеко, как облака от земли.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+Милость +20
+Статы (изучено):
+HP +60
+Уклонение +31
+Тип кодекса: Поддержка
+Навык
+[Осеннее небо]
+При получении 3 эффектов контроля за 10 с. снимает текущие контроли и в течение 5 с. 2 раза блокирует эффекты контроля. CD: 35 с.
+Активация навыка кодекса сопровождается спецэффектами.
+Осеннее небо окутанное пеленой дождя.
+Далекие горы, тихая река и сердце, полное одиночества.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+Уклонение +179
+Статы (изучено):
+Стойкость +3
+Злость +3
+Тип кодекса: Защита
+Навык
+[Рубеж]
+При получении урона есть шанс 8% снять с себя [Проклятие], иммунитет к [Проклятию] на 5 с. Активируется 1 раз каждые 50 с.
+Активация навыка сопровождается спецэффектами
+Солнца шар степенно движется к закату.
+Ветер громко воет, с неба птиц сгоняя.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+Атака +173
+Статы (изучено):
+Атака +30
+Меткость +31
+Тип кодекса: Поддержка
+Навык
+[Наваждение]
+Уклонение +1%, меткость +1%
+Активация навыка кодекса сопровождается спецэффектами.
+Месяц высоко, сад благоухает.
+В том саду жена верно мужа ждет.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +22
+Атака +173
+Статы (изучено):
+Уклонение +31
+Меткость +31
+Тип кодекса: Защита
+Навык
+[Радость]
+При получении эффекта контроля входящий урон уменьшается на 3% на 5 с. Эффект доступен 1 р. каждые 30 с.
+Активация навыка сопровождается спецэффектами
+Утреннее солнце освещает цветущий сад. Птицы радостно встречают новый день. Ветви ивы склонились к самой воде.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +173
+Пробой +44
+Статы (изучено):
+Атака +30
+Свирепость +3
+Тип кодекса: Атака
+Навык
+[Расцвет]
+СКР генерации ци увеличивается на 4%, после использования навыка ци шанс 4% ускорить CD навыка на 20% на 5 с. CD: 10 с.
+Активация навыка сопровождается спецэффектами
+Весенний ветер играет с лепестками цветов абрикоса.
+Весеннее солнце дарит долгожданное тепло.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +228
+Злость +14
+Статы (изучено):
+Милость +3
+Меткость +31
+Тип кодекса: Поддержка
+Навык
+[Шаг луны]
+При входящем уроне с шансом 2% накладывается эффект "Шаг луны": дает иммунитет к замедлению, оглушению, оцепенению и отбрасыванию, ускоряет движение на 20%, действует 2 с.
+Активация навыка сопровождается спецэффектами
+Подобный яшме месяц скрыт в легчайшей дымке.
+Он сегодня ночью осветит мне путь.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +341
+Уклонение +178
+Статы (изучено)
+Спад ФКрита +18
+Крит +12
+Тип кодекса: Защита
+Навык
+[Солнечная осень]
+Когда HP &lt;50%, при получении урона есть шанс вызова щита, который будет поглощать весь урон в последующие 5 с. (поглощается урон до 100% от HP). После завершения действия щита персонаж будет получать по 5% от поглощенного щитом урона каждую секунду (защита игнорируется). Длится 20 с., срабатывает 1 раз за 60 с.
+Солнечная осень. Легкий ветер тревожит иней.
+Когда мечты меня покинут? 
+Лодочка плывет устало, в ней красавица младая.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +172
+Меткость +178
+Статы (изучено):
+Спад МКрита +18
+АТК +23
+Тип кодекса: Поддержка
+Навык
+[Пьяная весна]
+После использования навыка (кроме обычных атак) есть шанс 6% не расходовать ци при использовании навыка ци. Длится 15 с. Эффект доступен 1 р. каждые 60 с.
+И снова до рассвета не дарит сон покой. 
+Яблонь аромат густеет под дождем.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +172
+Пробой +43
+Статы (изучено):
+Крит +16
+Бонус Крит +23
+[Тревожные думы]
+Статы всех надетых кодексов +4%. Навык активируется после изучения кодекса.
+Тревога напрасна и приводит к безумию.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад ФКрита +134
+Спад МКрита +134
+Статы (изучено)
+СФКриту +32
+СМКриту +32
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +341
+Спад ФКрита +134
+Статы (изучено):
+СМКрит +32
+СФКрит +32
+Тип кодекса: Защита
+Навык
+[Гармония]
+Когда собств. HP &gt;50%, кажд.сек. входящий урон -0,5%, суммируется до 5 раз. При получении урона эффект ослабевает на 0,5% кажд.сек. Достигнув нуля, начинает суммироваться заново. Эффект перестает действовать после трансформации (оборотня, друида, эриола).
+Когда дневная погода изменчива, вечерние краски становятся только ярче.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад МКрита +134
+УКЛ +178
+Статы (изучено):
+Макс.HP +60
+Злость +3
+Тип кодекса: Защита
+Навык
+[Нефритовая цепь]
+Когда входящий урон за 5 сек. &gt;10% от собств. HP, вы будете отмечать врага с самым высоким HP в пределах 20 м., и каждый входящий урон будет уменьшать HP противника на 0,5%. Длиться 8 с. Суммируется до 10 раз. Состоянии метки длится до 10 с. Если умираете в состоянии метки, входящий урон цели +5%. Длится 5 с. Состоянии метки доступно кажд. 40 сек.
+Когда вдруг застучали по листочкам капли дождя? Уже покрыты каплями цветы, да не идут на ум слова.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+ Атака +172
+ФКрит +92
+Тип кодекса: Связь
+Статы (изучено):
+Свирепость +3
+Милость +3
+Тип кодекса: Защита
+Навык
+[Утолять жажду]
+После приемки повреждения, вызванные эйдолоном, увеличиваются на 3%. Навык активируется после изучения кодекса.
+После приемки голод питомца не опускается ниже 80%. Навык активируется после изучения кодекса.
+Сливовый лес, сладкое и кислое могут утолить жажду.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Бонус Крит +134
+Крит +92
+Статы (изучено):
+Злость +3
+Стойкость +3
+Тип кодекса: Защита
+Навык
+[Мелодия реки]
+Когда HP &lt; 50%, шанс 15% получить при входящем уроне иммунитет к эффектам контроля (кроме превращения). Длится 3 с. CD: 60 сек.
+Когда же явилась, над миром сияя, луна? Спрошу небеса, поднимая к ним чашу вина.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +172
+Крит +92
+Статы (изучено):
+Пробой +7
+HP +60
+Тип кодекса: Атака
+Навык
+[Тёплая весна]
+При атаке на цели с HP менее 30%, СКР движения и СКР полета увеличиваются на 4,5%, исходящий урон увеличивается на 3% в течение 5 секунд. CD: 40 секунд
+Вздымает волны к небу все сильней, пух тополя бежит по ветру как ручей.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +172
+Крит +92
+Статы (изучено):
+HP +60
+УКЛ +31
+Тип кодекса: Защита
+Навык
+[Винная тоска]
+Когда HP ниже 30% активируется эффект [Кровавая ярость]: снимает с себя все негативные эффекты (контроль, проклятие) и 2 раза блокирует урон, превыш. 5 % от макс. HP. Длится 2 сек. После завершения действия эффекта повышается входящий урон на 20% на 5 сек. CD: 60 с.
+Освещают фонари богатый пир, звучат под звуки музыки стихи поэта, здесь лютней очарован каждый господин, и ты не откажи вина испить за это.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +172
+Бонус Крита +134
+Статы (изучено):
+МТК +31
+УКЛ +31
+Тип кодекса: Атака
+Навык
+[Зов воды]
+При нанесении урона 10% шанс увеличить урон стихий на 10%. Длится 5 с. Эффект срабатывает не чаще 1 р. кажд. 45 сек.
+Как исчезает с неба и вновь возникает луна, рождаются и гибнут поколения.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +22
+Меткость +178
+Статы (изучено):
+HP +60
+Меткость +31
+Тип кодекса: Атака
+Навык
+[Южная песнь]
+Шанс крита +1,8%.
+Слова режут, словно кинжалы.
+Равнодушие от них лучший щит.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +172
+Крит +92
+Статы (изучено):
+HP +60
+Уклонение +31
+Тип кодекса: Атака
+Навык
+[Снежный лист]
+Урон от навыков, потребляющих MP, +1,2%, расход MP снижается на 10%.
+Хаос в сердце излечит дорога.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +172
+HP +341
+Статы (изучено):
+HP +60
+Живучесть +4
+Тип кодекса: Поддержка
+Навык
+[Жетон сливы]
+Создает ударную волну вокруг союзной цели лечения, нанося врагам в радиусе 8 м вокруг урон силой 10% АТК. CD: 5 сек.
+Чистота снегов красит любой пейзаж.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+Спад ФКрита +89
+Спад МКрита +89
+Статы (изучено):
+HP +60
+УКЛ +31
+Тип кодекса: Атака
+Навык
+[Песнь ветра] с шансом 10% наносит на 2% больше урона и активирует у цели эффект [Всевидящее око] на 60 с. [Всевидящее око]: после 1 активации исчезновения в течение 15 с. блокирует повторную активацию эффекта.
+Этот эффект после срабатывания рассеивает [Всевидящее око], активируя перезарядку навыка на 30 с.
+Слова режут, словно кинжалы. Равнодушие от них лучший щит.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +15
+Крит +61
+АТК +115
+Статы (изучено):
+HP +60
+МТК +31
+Тип кодекса: Атака
+Навык
+[Цветы весны] При использовании атакующего навыка (кроме обычн. атаки) шанс 10% активировать статус [Цветы весны]: шанс крита +10% на 4 с. Статус снимается после 10 критов. CD: 45 с.
+Хаос в сердце излечит дорога.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+Спад ФКрита +89
+Спад МКрита +89
+Статы (изучено):
+HP +60
+Уклонение +31
+Тип кодекса: Атака
+Навык
+[Благая весть] При нанесении урона, если цель – босс-монстр, то есть шанс 20% нанести цели доп. урон в размере 40% от АТК. Если цель – обычный монстр, то есть шанс 20% нанести цели и врагам в радиусе 3 м от нее урон в размере 16% АТК. CD: 2 с.
+В летних сумерках жизнь оживает. Распускаются ночные цветы, люди прогуливаются под луной, хищники выходят на охоту.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +341
+АТК +172
+Статы (изучено):
+Спад ФКрита +23
+Крит +26
+Тип кодекса: Защита
+Навык
+[Весенняя ясность] При получении в течение 5 сек. маг. урона от игроков других рас, превышающего 25% от HP, активируется эффект [Оберег].
+[Оберег]: маг. урон от игроков других рас -30% на 10 сек. CD: 30 сек.
+Недолго длится беззаботная весна, и в старости печалям нет конца.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+Спад ФКрита +89
+Спад МКрита +89
+Статы (изучено):
+HP +60
+Крит +16
+Тип кодекса: Связь
+Навык
+[Западная река] Статы развития данного свитка кодекса +25%. Навык активируется после изучения кодекса.
+Бушующие волны обрушивались на одинокий город, а ветер атаковал с неба.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+СФКрит +123
+СМКрит +123
+Статы (изучено):
+HP +60
+Атака +30
+Тип кодекса: Защита
+Навык
+[Префектура] При входящей атаке существует 40% шанс снизить урон на 5%.
+Пыль времен всего лишь тень былого мира.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+СФКрит +123
+СМКрит +123
+Статы (изучено):
+Злость +4
+Стойкость +4
+Тип кодекса: Защита
+Навык
+[Ясная тень] Если HP &lt;60%, при получении урона есть шанс активировать [Лечебную нейтрализацию]. [Лечебная нейтрализация]: 30% получаемого урона от игрока и 3% урона от монстра трансформируются в лечение на 2 с. CD: 60 с.
+Тень – это чернила, которыми пишет солнце.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +227
+Атака +115
+Крит +61
+Статы (изучено):
+СтКрит +15
+ССтКрит +15
+Тип кодекса: Защита
+Навык
+[Перламутровые слезы] Нейтрализует урон, после которого HP упали бы ниже 20%, и дает иммунитет на подобный урон еще на 1 с. CD: 90 с.
+Даже самого ослепительного света не бывает без тени.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Свирепость +20
+Милость +20
+Статы (изучено):
+Атака +300
+HP +603
+Тип кодекса: Связь
+Навык
+[Камень преткновения] Статы изучения значительно увеличиваются. Навык активируется после изучения кодекса.
+Порой в твоей душе сомнения встать могут камнем преткновения.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Злость +21
+Стойкость +21
+Статы (изучено):
+СтКрит +14
+Уклонение +31
+Тип кодекса: Связь
+Навык
+[Баллада о богах] Увеличивает ССтКрит  от собств. уровня х2. Навык активируется после изучения кодекса.
+Властвует рок над смертными и над богами.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СтКрит +55
+HP +227
+Бонус СтКрит +60
+Статы (изучено):
+Меткость +31
+Уклонение +31
+Тип кодекса: Атака
+Навык
+[Тихая роща] При АТК стихий есть 40% шанс нанести 5% доп. урона.
+Роща зеленеет, палящим солнцем облита.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Ур. навыка класса +1
+ATK +95
+HP +189
+Статы (изучено):
+ATK +23
+HP +46
+Тип кодекса: Атака
+Навык
+[Поздравления]
+Урон обычных атак +5%.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Сила/Магия/Ловкость +8
+Крит +35
+СКР обычной атаки -0,8%
+Статы (изучено):
+ATK +23
+HP +46
+Тип кодекса: Поддержка
+Навык
+[Ярость небес]
+При запуске навыка шанс 10% повысить СКР движения и полета на 5% на 6 с.
+Активация навыка сопровождается спецэффектами.
+Небеса покоряются достойнейшим.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Пробой +18
+CD навыков -0,7%
+HP +146
+Статы (изучено):
+Крит +12
+ATK +23
+Тип кодекса: Поддержка
+Навык
+[Аромат]
+При HP &lt; 5% получаемое лечение +5%
+Активация навыка сопровождается спецэффектами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +9
+CD навыков -0,7%
+ATK +73
+Статы (изучено):
+Крит +12
+ATK +23
+Тип кодекса: Поддержка
+Навык
+[Разлука]
+Повышает шанс уклонения на 2%. Не действует при активации Наваждения.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Крит +17
+Снижение урона +0,4%
+HP +63
+Статы (изучено):
+УКЛ +24
+HP +46
+Тип кодекса: Атака
+Навык
+[Рия и алые губы]
+Повышает крит. урон на 10%.
+Алая кровь пробуждает жажду.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +8
+СКР обычной атаки -0,8%
+HP +129
+Статы (изучено):
+УКЛ +24
+HP +46
+Тип кодекса: Поддержка
+Навык
+[Вечные волны]
+Исходящее лечение дает щит в течение 3 секунд. На одну цель можно наложить один Щит. Щиты не могут накапливаться
+Легкий ветер окутывает, даруя защиту.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +8
+Крит +35
+СКР подготовки +0,8%
+Статы (изучено):
+Крит +12
+УКЛ +24
+Тип кодекса: Атака
+Навык
+[Хулиганы]
+Повышает урон по оглушенным, оцепеневшим и запечатанным целям на 2%.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+ATK +65
+СКР подготовки +0,8%
+HP +129
+Статы (изучено):
+Крит +12
+УКЛ +24
+Тип кодекса: Атака
+Навык
+[Сад пустоты]
+При атаке есть шанс 5% уменьшить ци цели на 4%.
+Активация навыка сопровождается спецэффектами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +11
+Стойкость +55
+Милость +10
+Статы (изучено):
+Стойкость +2
+Милость +2
+Тип кодекса: Поддержка
+Навык
+[Завет]
+После смерти усиливает 1 случайного союзника в радиусе 20 м, повышая его исходящий урон на 12% на 15 с., срабатывает 1 раз в 180 с.
+Печаль уходит, оставляя завет.
+</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад ФКрита +103
+Спад МКрита +103
+Статы (изучено):
+Атака +23
+HP +46
+Тип кодекса: Защита
+Навык
+[Мост и луна]
+После получения крита есть 30% шанс увеличить ослабление крит. урона на 4% на 5 с. Суммируется 3 р. Эффект срабатывает до 3 р. каждые 45 с. Навык активируется после изучения кодекса.
+Где бы ни был каждый из нас, мы всегда будем видеть одну луну.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+Меткость +102
+Статы (изучено)
+СФКрит +18
+СМКрит +18
+Тип кодекса: Защита
+Навык
+[Облачная дорога]
+Игрок, получивший в течение 8 сек. 8 ударов, превышающих по урону 5% HP, после крит. урона получает эффект [Пелена облаков] на 4 сек. CD: 60 сек.
+[Пелена облаков]: вход. критический урон снижается до 20% от изначального урона.
+Чужое безразличие пробудит чувства даже в нефрите.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +132
+HP +262
+Статы (изучено):
+Спад ФКрита +18
+Спад МКрита +18
+Тип кодекса: Связь
+Навык
+[Южный плод] Когда в Мире грез группы появляется префикс расхода MP, эффект удвоения расхода MP -16%. Навык активируется после изучения кодекса.
+Оглянувшись назад на каменные горы, я не увидел жителей.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +73
+Крит +40
+Сокращение CD +0.7%
+Статы (изучено):
+Спад ФКрита +18
+Спад МКрита +18
+Тип кодекса: Атака
+Навык
+[Прибрежные волны · Люди] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления людей]. Если на цель уже действует эффект [Подавление людей], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – люди, вы получите доп. эффекты: урон игроков других рас -5%.
+Только читая историю, можно осознать, насколько безграничен мир.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +73
+Крит +40
+Сокращение CD +0.7%
+Статы (изучено):
+Спад ФКрита +18
+Спад МКрита +18
+Тип кодекса: Атака
+Навык
+[Прибрежные волны · Демоны] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления зооморфов]. Если на цель уже действует эффект [Подавление зооморфов], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – зооморфы, вы получите доп. эффекты: урон игроков других рас -5%.
+Только читая историю, можно осознать, насколько безграничен мир.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +73
+Крит +40
+Сокращение CD +0.7%
+Статы (изучено):
+Спад ФКрита +18
+Спад МКрита +18
+Тип кодекса: Атака
+Навык
+[Прибрежные волны · Ангелы] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления сидов]. Если на цель уже действует эффект [Подавление сидов], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – сиды, вы получите доп. эффекты: урон игроков других рас -5%.
+Только читая историю, можно осознать, насколько безграничен мир
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +73
+Крит +40
+Сокращение CD +0.7%
+Статы (изучено):
+Спад ФКрита +18
+Спад МКрита +18
+Тип кодекса: Атака
+Навык
+[Прибрежные волны · Духи] При нанесении урона игроку с шансом 10% на цель накладывается эффект [Подавления древних]. Если на цель уже действует эффект [Подавление древних], она получит особый урон в размере 2% от АТК цели. От удара нельзя уклониться. Срабатывает не чаще 1 р. в 2 с. Если цель – монстр, с шансом 20% урон увеличивается на 4%. Если ваша раса – древние, вы получите доп. эффекты: урон игроков других рас -5%.
+Только читая историю, можно осознать, насколько безграничен мир
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрит +142
+СМКрит +142
+Статы (изучено):
+Бонус Крита +18
+Крит +12
+Тип кодекса: Защита
+Навык
+[Волнорез · Люди] Есть шанс 20% снизить урон от людей на 20%. Рассеивает эффект [Подавление людей] и дает к нему иммунитет на 10 с. CD: 10 c.
+Нельзя научиться покорять величественные волны.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрит +142
+СМКрит +142
+Статы (изучено):
+Бонус Крита +18
+Крит +12
+Тип кодекса: Защита
+Навык
+[Волнорез · Демоны] Есть шанс 20% снизить урон от зооморфов на 20%. Рассеивает эффект [Подавление зооморфов] и дает к нему иммунитет на 10 с. CD: 10 c.
+Нельзя научиться покорять величественные волны.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрит +142
+СМКрит +142
+Статы (изучено):
+Бонус Крита +18
+Крит +12
+Тип кодекса: Защита
+Навык
+[Волнорез · Ангелы] Есть шанс 20% снизить урон от сидов на 20%. Рассеивает эффект [Подавление сидов] и дает к нему иммунитет на 10 с. CD: 10 c.
+Нельзя научиться покорять величественные волны.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрит +142
+СМКрит +142
+Статы (изучено):
+Бонус Крита +18
+Крит +12
+Тип кодекса: Защита
+Навык
+[Волнорез · Духи] Есть шанс 20% снизить урон от древних на 20%. Рассеивает эффект [Подавление древних] и дает к нему иммунитет на 10 с. CD: 10 c.
+Нельзя научиться покорять величественные волны.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +262
+СМКрит +142
+Статы (изучено):
+Свирепость +3
+Милость +3
+Тип кодекса: Защита
+Навык
+[Путь силы] При получении в течение 5 с. маг. урона от игрока в размере более 40% от макс. HP, последующие 10 с. входящий маг. урон -5%. CD: 30 с.
+Симфония ручья обед мой скромный скрасит, но отогнать печали не под силу ей.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +262
+СФКрит +142
+Статы (изучено):
+Свирепость +3
+Милость +3
+Тип кодекса: Защита
+Навык
+[Узы крови] При получении в течение 5 с. физ. урона от игрока в размере более 40% от макс. HP, последующие 10 с. входящий физ. урон -5%. CD: 30 с.
+Восток и Юг в своей красе блистают, собрав все царства под знамена.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Буйство +26
+Эгида +26
+Статы (изучено):
+Атака +23
+HP +46
+Тип кодекса: Защита
+Навык
+[Улыбка судьбы] При получении урона от монстра, если HP ниже 40%, дается эффект восстановления HP на 5 с., каждую секунду восстанавливая 2% от макс. HP. Эффект срабатывает не чаще 1 раза в 45 с.
+Необязательно иметь крылья, чтобы летать
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Бонус СтКрит +69
+Спад СтКрит +69
+Статы (изучено):
+СтКрит +11
+ССтКрит+11
+Тип кодекса: Атака
+Навык
+[Древнее предание] В Мире стихий макс. АТК стихий +2%.
+За окном идет капризный дождь. Но на настроение он не влияет.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Ур. навыка класса +1
+Живучесть +8
+ATK +61
+Статы (изучено):
+ATK +17
+HP +34
+Тип кодекса: Атака
+Навык
+[Взрыв MP]
+Повышает урон всех навыков, поглощающих MP, на 1%.
+</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Крит+35
+СКР обычной атаки -0,4%
+HP +129
+Статы (изучено):
+ATK +17
+HP +34
+Тип кодекса: Атака
+Навык
+[Двойной урон]
+Запуск навыков доп. расходует 0.5% собств. HP, урон от навыка +2%. Не работает при HP &lt;50%.
+Аромат вина кружит голову, как полет ласточки.
+Из 2 кодексов одного уровня в Горне синтезируется 1 случ. кодекс того же уровня.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Сила/Магия/Ловкость +8
+Пробой +16
+CD навыков -0,4%
+Статы (изучено):
+Крит +9
+ATK +17
+Тип кодекса: Атака
+Навык
+[Горящая мана]
+При попадании снижает MP целей на 30. Если у целей нет MP они получают на 1% больше урона.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+CD навыков -0,4%
+АТК +65
+HP +129
+Тип кодекса: Защита
+Статы (изучено):
+Крит +9
+АТК +17
+Навык
+[Судьба]
+Снижает входящий урон при оглушении на 3%.
+Баловням судьбы не страшны дурные предзнаменования.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +4
+Крит +19
+Снижение урона +0,25%
+Статы (изучено):
+УКЛ +18
+HP +34
+Тип кодекса: Поддержка
+Навык
+[Комбо ударов]
+При использовании навыка есть 5% шанс сократить CD всех навыков на 0,5 сек.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Пробой +16
+СКР обычной атаки +0,4%
+HP +129
+Статы (изучено):
+УКЛ +18
+HP +34
+Тип кодекса: Атака
+Навык
+[Потрясение]
+При HP &lt;30% исходящий урон +4%
+Активация навыка сопровождается спецэффектами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Сила/Магия/Ловкость +8
+Крит +35
+СКР подготовки +0.4%
+Статы (изучено):
+Крит +9
+УКЛ +18
+Тип кодекса: Атака
+Навык
+[Весенний голод]
+При атаке есть 5% шанс выпустить молнию на цель, в результате чего наносится урон ФАТК 40% + МАТК 40%.
+Активация навыка сопровождается спецэффектами
+Весенняя гроза знаменует гнев небес.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+СКР подготовки +0,4%
+ATK +65
+HP +129
+Статы (изучено):
+Крит +9
+УКЛ +18
+Тип кодекса: Поддержка
+Навык
+[Скорая помощь]
+Повышает лечение целей с HP &lt;20% на 4%
+</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Свирепость +2
+Милость +2
+Статы (изучено):
+Свирепость +27
+Милость +27
+Тип кодекса: Связь
+Навык
+[Грусть]
+Тоска предает забвению надетые статы и пробуждает изученные
+Улучшение Тоски не влияет на статы (надето) и заметно повышает статы (изучено).
+Чуждо благородному герою чувство радости.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад ФКрита +77
+Спад МКрита +77
+Тип кодекса: Связь
+Статы (изучено):
+HP +34
+УКЛ +17
+Навык
+[Кодекс дракона]
+Урон по монстрам +1%. Навык активируется после изучения кодекса.
+Легендарный том, хранящий множество секретов.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад ФКрита +77
+Спад МКрита +77
+Статы (изучено): 
+АТК +17
+Живучесть +2
+Тип кодекса: Поддержка
+Навык
+[Лебедь]
+Заменяет Взрыв ци, Небесную ци и Ци демона на Взрыв лебедя; перекрывает текущий эффект, можно применять во время входящего контроля.
+Взрыв лебедя: расходует 2 ци, восстанавливает 10% максимума HP, МАТК +22% на 10 с., непобедимость на 2,5 с. (Состояние контроля невозможно в трансформации).
+Сижу на молитвенном коврике, плат надев из оленьей шкуры.
+Встревоженный лебедь спрятался от огня, а снег ложится на сломанный клинок Эолиана.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+Крит +53
+Статы (изучено):
+Свирепость +2
+Милость +2
+Тип кодекса: Атака
+Навык
+[Песнопения] Увеличивает меткость на 1.5 от собственного уровня. Навык активируется после изучения кодекса.
+На берегу реки растет бесчиленное множество цветов
+Собирая цветы я почувствовал себя одиноким
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Бонус Крит +77
+Спад Крита +77
+Тип кодекса: Связь
+Статы (изучено):
+АТК +17
+HP +34
+Тип кодекса: Защита
+Навык
+[Парчовая весна]
+Урон по игрокам другой расы +0,5%, входящий урон от игроков своей расы -0,5%
+Навык активируется после изучения кодекса.
+Не хуже красного вина иль самоцветов, дурманят голову весенние цветы. Шелк лепестков бальзамом лег в душе поэта, и жемчугом блестят бутоны полные росы.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+МТК +102
+Статы (изучено):
+УКЛ +17
+Пробой +4
+Тип кодекса: Атака
+Навык
+[Лунная роза]
+При нанесении урона 10% шанс нанести доп. физ. или маг. урон по цели (в зависимости от класса) со значением урона, равным наибольшему из пяти стихий (металл, дерево, вода, огонь, земля) * 30% (не действует одновременно с "Весенний голод").
+Приплыл однажды челн мой в край далекий, где сливы пышный цвет увидеть можно каждый день. В ночи мне подарил прохладу ветер легкий, и дождик нежен был как по весне капель.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Спад ФКрита +77
+Спад МКрита +77
+Статы (изучено):
+УКЛ +17
+АТК +17
+Тип кодекса: Защита
+Навык
+[Ночной полёт]
+Когда HP упало ниже 60%, в течение следующих 2 сек. урон за один удар от игрока не будет превышать 5% собств. HP. Срабатывает 1 р. в 60 сек.
+К диким местам свернула дорога, не слышен здесь говор людской. До дома дойти осталось немного, но в душе переполнен тоской.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СМКрит +106
+СФКрит+106
+Статы (изучено):
+Спад ФКрита +13
+Спад МКрита+13
+Тип кодекса: Защита
+Навык
+[Воды жизни]
+Персонаж не получает смертельный урон в течение 8 с. после получения урона от другого игрока, а становится стойким на 2 с. CD: 60 сек. [Стойкость]: HP персонажа не падает ниже 5%. После окончания действия исх. урон и лечение персонажа снижаются на 50%. Действует 15 с. Нельзя развеять.
+Осенние воды замедляют поток, вторя природной печали.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+HP +196
+Статы (изучено):
+АТК +17
+Живучесть +2
+Тип кодекса: Связь
+Навык
+[Ветер небытия] Действует в Мире грез (отряд) при наличии префикса «Яд скорпиона» время пребывания персонажа в форме зомби-скорпиона сокращается на 10%. 
+В Мире грез (группа) при наличии префикса «Воплощение время» одержимость персонажа демоном души сокращается на 10%. Навык активируется после изучения кодекса.
+Вино на радость нам делает смех громче, а песни веселее.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Меткость +17
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Жертва дождя] Мир грёз: отряд, префикс Магнетизм: персонаж имеет 10% шанс избежать воздействия магнетизма. Мир грёз: отряд, префикс Инь-Ян: персонаж имеет 10% шанс избежать воздействия Инь-Ян. Навык активируется после изучения кодекса.
+Одевшись в весенние одежды, взрослые и дети танцуют и призывают дождь.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Свирепость +2
+Милость +2
+Тип кодекса: Связь
+Навык
+[Стремление ввысь] Мир грёз: отряд, префикс Терновый панцирь: исходящий урон персонажа + 4%. Мир грёз: отряд, префикс Погружение в мысли: исходящий урон персонажа + 4%. Навык активируется после изучения кодекса.
+Дракон взмывает в облака, небо дарует таланты достойным. Видится сквозь снег, слышится сквозь ветер.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Спад ФКрита +18
+Крит +9
+Тип кодекса: Связь
+Навык
+[Карающая длань] Если в Мире грёз: отряд появляется префикс Обращенный щит, то исход. урон персонажа +4%. Если в Мире грёз: отряд появляется префикс Инкарнация, то исход. урон персонажа +4%. Навык активируется после изучения кодекса.
+Флейта и меч устроили поединок. Песня флейты полна чувств, а меч способен осуществить кровную месть.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Спад МКрита +13
+Атака +17
+Тип кодекса: Связь
+Навык
+[Морской утес] Мир грёз: отряд, префикс Ересь: воздействие бессилия -10%. Мир грёз: отряд, префикс Бесовство: время наложенного на персонажа эффекта страха -10%. Навык активируется после изучения кодекса.
+Я вижу горы, реки, утес и тайные врата.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Атака +17
+HP +34
+Тип кодекса: Связь
+Навык
+[Тень благоухания] Мир грёз: отряд. При наличии префикса «Карма I» или «Карма II» урон от Правосудия снижается на 10%. Мир грёз: группа. При наличии префикса «Небесная кара» урон от Небесной кары снижается на 10%.
+Навык активируется после изучения кодекса.
+Одинокое увядание раздирает сердце.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Крит +9
+Бонус Крита +13
+Тип кодекса: Связь
+Навык
+[Перемены] Мир грёз: отряд или Мир грёз: группа, префикс Невозврат: время недоступности возрождения после смерти персонажа - 10%. Навык активируется после изучения кодекса.
+Друзья, забывшие о мире, словно осенние птицы над водой.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+СФКрит +18
+СМКрит +18
+Тип кодекса: Связь
+Навык
+[Простор океана] Мир грёз: отряд, префикс Щит тьмы: исходящий урон игрока + 4%.
+Мир грёз: группа, префикс Непогрешимость: исходящий урон игрока + 4%.
+Навык активируется после изучения кодекса.
+Ветхий дом в глуши, лишь вдалеке видны огни. Пагода возносится до небес, корабли уплывают в закат.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+HP +34
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Созерцание Дхармы] Мир грёз: отряд, префикс Воля неба: входящий рикошетный урон персонажа -10%. Мир грёз: отряд, префикс Воля богов: входящий рикошетный урон персонажа -10%. Навык активируется после изучения кодекса.
+Наблюдать за бренным миром смертных, молчаливо созерцать его превращения.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+Атака +99
+Статы (изучено): 
+Уклонение +17
+Меткость +17
+Тип кодекса: Связь
+Навык
+[Мелодия арфы]
+Крит. урон по монстрам +1%.
+Навык активируется после изучения кодекса.
+Капли дождя отражают рассвета лучи, пока облака замедляют бег.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +66
+Спад ФКрита +51
+Спад МКрита +51
+Статы (изучено):
+HP +34
+УКЛ +17
+Тип кодекса: Связь
+Навык
+[Капли дождя] В древнем тайнике при нанесении урона по монстрам есть 2% шанс доп. нанести урон, равный 500% от АТК. CD: 5 сек. Навык активируется после изучения кодекса.
+Возвращаюсь в край родной и слышу новую песню.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +8
+Крит +35
+АТК +66
+Статы (изучено):
+HP +34
+МТК +17
+Тип кодекса: Связь
+Навык
+[Прорицатель] Отряды и группы в Мире грёз: урон по боссам и монстрам +1%. Навык активируется после изучения кодекса.
+В захолустье у разбитого моста, нет никого, кто б восхитился красотой цветущей сливы.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+ССтКрит +47
+Спад СтКрит +34
+Статы (изучено):
+СтКрит +8
+Бонус СтКрит +9
+Тип кодекса: Связь
+Навык
+[Песнь рыбака] Повышает крит. стихий на значение, равное ур. собств. персонажа х0,75. Навык активируется после изучения кодекса.
+Под персиковым деревом резвиться карп в весенний водах, и белой цапли взмах крыла в горы высотах.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+Меткость +102
+Статы (изучено):
+СФКрит +18
+СМКрит +18
+Тип кодекса: Связь
+Навык
+[Летние земли]
+Урон стихий +1%. Навык активируется после изучения кодекса.
+Убивает противника ярость, захватывает его богатства жадность.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+HP +196
+Статы (изучено):
+Свирепость +2
+Милость +2
+Тип кодекса: Защита
+Навык
+[Осенние мысли]
+При смерти дает 2 слоя эффекта [Непоколебимости].
+[Непоколебимость]: HP +2%, Сопротивление криту +2%, Ослабление крита +2% на 5 мин. Суммируется до 10 р. При убийстве 1 противника снимается 1 слой эффекта.
+Навык активируется после изучения кодекса. Действует только в Лиге гильдий/Суперлиге гильдий/Войне владений/Войне миров
+Под звуки лютни падают капли дождя, в сердце вновь поселилась тоска.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+Спад ФКрита +77
+Статы (изучено):
+Спад МКрита +13
+АТК +17
+Тип кодекса: Связь
+Навык
+[Ароматные травы]
+Уменьшает маг. урон от игроков другой расы на 1%. Навык активируется после изучения кодекса.
+К концу весна идет, увял уж пышный цвет. Я на чужбине уже год, хоть мест прекрасней здешних нет.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Макс. HP +196
+Спад МКрита +77
+Статы (изучено):
+Спад ФКрита +13
+УКЛ +17
+Тип кодекса: Связь
+Навык
+[Тихий восторг]
+За 5 сек. получив от игроков урон &gt;50% собств. макс. HP, на следующие 3 сек. вход. урон от игроков -50%. CD: 120 сек. Навык активируется после изучения кодекса.
+Осенней ночью звезды как никогда ярки, столичный город освещают фонари.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+МТК +102
+Статы (изучено):
+Злость +2
+Стойкость +2
+Тип кодекса: Защита
+Навык
+[Подлунная флейта] Увеличивает урон по монстрам в радиусе 6 м на 5%. При получении урона от босса в радиусе 6 м, превышающего 50% от HP, урон снижается до 20% от HP. Эффект сниж. урона срабатывает 1 раз в 30 сек.
+Исходил я все дороги да истоптал сапоги, но где тебя, мой старый друг, найти.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+МТК +102
+Статы (изучено):
+HP +34
+АТК +17
+Тип кодекса: Связь
+Навык
+[Водная нимфа] Получаемые статы от повышения уровня формации созвездия Дуо +5%. Когда формация созвездия Дуо достигнет 10 ур., уровень навыка активного кодекса в слоте [Изменения] повышается на 1. Навык активируется после изучения кодекса.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+HP +196
+Статы (изучено):
+Атака +17
+HP +34
+Тип кодекса: Связь
+Навык
+[Ода любви] Если в Мире грёз: отряд присутствует префикс Изгнания, время пребывания персонажа в изгнании сокращается на 10%. Если в Мире грёз: группа присутствует префикс Жатвы, у персонажа есть 10% шанс получить иммунитет к смертельной Жатве. Навык активируется после изучения кодекса.
+Одинокое увядание раздирает сердце.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +99
+Крит +53
+Статы (изучено):
+HP +34
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Цвет сливы] Мире грёз команда и Мире грёз группа: урон по монстрам (кроме боссов) +1%. Навык активируется после изучения кодекса.
+Одинокое увядание раздирает сердце.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрита +106
+СМКрита +106
+Статы (изучено):
+АТК +17
+Меткость +17
+Тип кодекса: Связь
+Навык
+[Бамбуковая ветвь] Получаемые статы от повышения уровня формации созвездия Трио повышаются на 5%. После того, как формация созвездия Трио достигает 10 ур., уровень навыка активного кодекса в слоте [Разрыв] повышается на 1. Навык активируется после изучения кодекса.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+Крит +53
+Статы (изучено):
+СФКрит +18
+СМКрит +18
+Тип кодекса: Связь
+Навык
+[Махровая гардения] На Испытании стихий атака стихий кажд. вида +200 ед. Навык активируется после изучения кодекса.
+В жизни должны быть любовь и увлечения.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+HP +196
+Крит +53
+Статы (изучено):
+Меткость +17
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Частная жизнь] Вход. стихийный урон -1%.
+Навык активируется после изучения кодекса.
+Долголетие в древности считалось большой редкостью.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+СФКрит +18
+СМКрит +18
+Тип кодекса: Связь
+Навык
+[Воевода] При нанесении физ. урона монстру с шансом 5% на цель накладывается эффект [Пробитие - физ]. Длится 8 сек.
+При нанесении маг. урона монстру с шансом 5% на цель накладывается эффект [Пробитие - маг]. Длится 8 сек.
+[Пробитие - физ]: ФЗАЩ -40%. Нельзя наложить на стрелка с [Пламенеющим доспехом]. [Пламенеющий доспех] вступает в силу первым.
+[Пробитие - маг]: МЗАЩ -40%. Нельзя наложить на жнеца с [Заходом луны]. [Заход луны] вступает в силу первым. Навык активируется после изучения кодекса.
+Лёгкий холод бодрит, мороз суровый пугает.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+Уклонение +102
+Статы (изучено):
+HP +34
+Меткость +17
+Тип кодекса: Связь
+Навык
+[Непреодолимая воля] Урон, наносимый монстрам в спину, увеличивается на 1%. Урон, получаемый при нахождении перед монстрами, уменьшается на 1%. Навык активируется после изучения кодекса.
+Наша жизнь, что вода в быстрой реке.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+HP +196
+Статы (изучено):
+Атака +18
+HP +34
+Тип кодекса: Связь
+Навык
+[Сапфировые слёзы] HP химеры в бою увеличивается на (ур. химеры *40 оч. Навык активируется после изучения кодекса.
+Все имеет свой закат.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Атака +99
+Крит +53
+Статы (изучено):
+HP +34
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Древние сказания] Получаемые осн. статы Созвездия Трио повышаются на 5%. После того, как формация Созвездия Трио достигает 10 ур., уровень навыка активного кодекса в слоте [погибели] повышается на 1. Навык активируется после изучения кодекса.
+Нет ни единого творения, в основе которого не лежала бы легенда.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+СФКрит +106
+СМКрит +106
+Статы (изучено):
+АТК +17
+Меткость +17
+Тип кодекса: Связь
+Навык
+[Призрачная дымка] Получаемые осн. статы Созвездия Дуо повышаются на 5%. После того, как формация Созвездия Дуо достигает 10 ур., уровень навыка активного кодекса в слоте [Кары] повышается на 1. Навык активируется после изучения кодекса.
+Воспоминания о древних временах стерты с течением времени.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Меткость +102
+HP +196
+Статы (изучено):
+СтКрит +8
+Уклонение +17
+Тип кодекса: Связь
+Навык
+[Сиреневая дымка] При нанесении урона существует 10% шанс игнорирования защиты цели на 2%. Навык активируется после изучения кодекса.
+Сиреневая дымка на закате таинственностью укрывает ночь.
+Кодекс не может быть разобран на листы кодекса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Сила/Магия/Ловкость +12
+АТК +91
+Статы (изучено):
+HP +63
+Тип кодекса: Поддержка
+Навык
+[Пир]
+При входящем уроне, есть 5% шанс увеличить СКР движения на 5% в течении 3 с.
+</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +12
+Крит +48
+Статы (изучено):
+HP +63
+Тип кодекса: Атака
+Навык
+[Крит]
+Шанс крита +1%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Сила/Магия/Ловкость +12
+Пробой +23
+Статы (изучено):
+АТК +32
+Тип кодекса: Атака
+Навык
+[Прокол]
+Шанс 1% получить 100% МПробой и ФПробой при использовании навыка, в течение 3 секунд
+Активация навыка сопровождается спецэффектами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +12
+АТК +91
+Статы (изучено):
+АТК +32
+Тип кодекса: Поддержка
+Навык
+[Горный проход]
+Повышает СКР генерации ци на 2%.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +12
+Крит +48
+Статы (изучено):
+Крит +17
+Тип кодекса: Поддержка
+Навык
+[Байки красоты]
+Усиливает входящее лечение на 1%.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Пробой +23
+HP +180
+Статы (изучено):
+Крит +17
+Тип кодекса: Поддержка
+Навык
+[Минор]
+Ускоряет движение на 2%.
+Звук оборванной струны достигнет холодного сердца. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+ATK +91
+HP +180
+Статы (изучено):
+УКЛ +33
+Тип кодекса: Поддержка
+Навык
+[Раздумья поэта]
+При входящей атаке, есть 2% шанс активировать иммунитет к замедлению, оглушению, оцепенению, отбрасыванию в течение 2 секунд. Кодекс не активируется одновременно с «Шагом Луны». При совместном исп. в приоритете акт. «Шаг Луны»
+Активация навыка сопровождается спецэффектами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Живучесть +12
+HP +180
+Статы (изучено):
+УКЛ +33
+Тип кодекса: Атака
+Навык
+[Коллапс]
+Повышает на 2% исходящий урон целям с HP ниже 20%.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статы (надето):
+Буйство +18
+АТК +91
+Статы (изучено):
+Буйство +6
+Тип кодекса: Атака
+Навык
+[Гуру охоты]
+При атаке есть 20% шанс нанести 4879 урона целям (не действует на игроков и питомцев)
+Водная гладь ловит отражение ветвей ивы и заснеженных слив.
+</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +10
+АТК +82
+Статы (изучено):
+HP +57
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +10
+Крит +44
+Статы (изучено):
+HP +57
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +10
+Пробой +20
+Статы (изучено):
+АТК +28
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +10
+АТК +82
+Статы (изучено):
+АТК +28
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +10
+Крит +44
+Статы (изучено):
+Крит +15
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Пробой +20
+HP +162
+Статы (изучено):
+Крит +15
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +82
+HP +162
+Статы (изучено):
+УКЛ +30
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +10
+HP +162
+Статы (изучено):
+УКЛ +30
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +10
+Буйство +16
+Статы (изучено):
+Эгида +5
+На закате жизни останется лишь разбитое сердце.
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +7
+АТК +53
+Статы (изучено):
+HP +37
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +7
+Крит +28
+Статы (изучено):
+HP +37
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Сила/Магия/Ловкость +7
+Пробой +13
+Статы (изучено):
+АТК +19
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+АТК +53
+Статы (изучено):
+АТК +19
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+Крит +28
+Статы (изучено):
+Крит +10
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Пробой +13
+HP +106
+Статы (изучено):
+Крит +10
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+АТК +53
+HP +106
+Статы (изучено):
+УКЛ +19
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+HP +106
+Статы (изучено):
+УКЛ +19
+Бесстрашие и жажда крови – вот, что кормит воина.
+Тип кодекса: Связь</t>
+  </si>
+  <si>
+    <t>Статы (надето):
+Живучесть +7
+Буйство +10
+Статы (изучено):
+Буйство +3
+Аромат лотосов наполняет сумеречный воздух.
+Тип кодекса: Связь</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +3395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1894,6 +3420,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,16 +3757,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2251,19 +3780,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2277,19 +3806,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" t="s">
         <v>316</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G3" t="s">
-        <v>464</v>
-      </c>
       <c r="H3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2303,19 +3832,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>454</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2329,19 +3858,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
-        <v>455</v>
+        <v>307</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2355,19 +3884,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2381,19 +3910,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2407,19 +3936,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2433,19 +3962,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G9" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2459,19 +3988,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>344</v>
+        <v>421</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="H10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2485,19 +4014,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="H11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2511,19 +4040,19 @@
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2537,19 +4066,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2563,19 +4092,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="G14" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="H14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2589,19 +4118,19 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="G15" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2615,19 +4144,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2641,19 +4170,19 @@
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="280.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2667,19 +4196,19 @@
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2693,19 +4222,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2719,19 +4248,19 @@
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2745,19 +4274,19 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2771,19 +4300,19 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2797,19 +4326,19 @@
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>357</v>
+        <v>434</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>482</v>
+        <v>334</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>483</v>
+        <v>335</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2823,19 +4352,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2849,19 +4378,19 @@
         <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>359</v>
+        <v>436</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>485</v>
+        <v>337</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2875,19 +4404,19 @@
         <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2901,19 +4430,19 @@
         <v>6</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>361</v>
+        <v>438</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>487</v>
+        <v>339</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2927,19 +4456,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2953,19 +4482,19 @@
         <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>363</v>
+        <v>440</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="231" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2979,19 +4508,19 @@
         <v>6</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -3005,19 +4534,19 @@
         <v>6</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -3031,19 +4560,19 @@
         <v>6</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -3057,19 +4586,19 @@
         <v>6</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>487</v>
+        <v>339</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3083,19 +4612,19 @@
         <v>6</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3109,19 +4638,19 @@
         <v>6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
@@ -3135,19 +4664,19 @@
         <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -3161,19 +4690,19 @@
         <v>6</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -3187,19 +4716,19 @@
         <v>6</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -3213,19 +4742,19 @@
         <v>6</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
@@ -3239,19 +4768,19 @@
         <v>6</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>373</v>
+        <v>451</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3265,19 +4794,19 @@
         <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
@@ -3291,19 +4820,19 @@
         <v>6</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -3317,19 +4846,19 @@
         <v>6</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3343,19 +4872,19 @@
         <v>6</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3369,19 +4898,19 @@
         <v>6</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
@@ -3395,19 +4924,19 @@
         <v>6</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -3421,19 +4950,19 @@
         <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>98</v>
       </c>
@@ -3447,19 +4976,19 @@
         <v>6</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
@@ -3473,19 +5002,19 @@
         <v>6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -3499,19 +5028,19 @@
         <v>6</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>383</v>
+        <v>461</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -3525,19 +5054,19 @@
         <v>6</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -3551,19 +5080,19 @@
         <v>6</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -3577,19 +5106,19 @@
         <v>5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
@@ -3603,19 +5132,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>464</v>
+        <v>316</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
@@ -3629,19 +5158,19 @@
         <v>5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>516</v>
+        <v>368</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>114</v>
       </c>
@@ -3655,19 +5184,19 @@
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>322</v>
+        <v>467</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
@@ -3681,19 +5210,19 @@
         <v>5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>387</v>
+        <v>468</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -3707,19 +5236,19 @@
         <v>5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
@@ -3733,19 +5262,19 @@
         <v>5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>122</v>
       </c>
@@ -3759,19 +5288,19 @@
         <v>5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>324</v>
+        <v>471</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>520</v>
+        <v>372</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>124</v>
       </c>
@@ -3785,19 +5314,19 @@
         <v>5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>126</v>
       </c>
@@ -3811,19 +5340,19 @@
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="396" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>128</v>
       </c>
@@ -3837,19 +5366,19 @@
         <v>5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>130</v>
       </c>
@@ -3863,19 +5392,19 @@
         <v>5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -3889,19 +5418,19 @@
         <v>5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="264" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
@@ -3915,19 +5444,19 @@
         <v>5</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -3941,19 +5470,19 @@
         <v>5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>138</v>
       </c>
@@ -3967,19 +5496,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -3993,19 +5522,19 @@
         <v>5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -4019,19 +5548,19 @@
         <v>5</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -4045,19 +5574,19 @@
         <v>5</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>146</v>
       </c>
@@ -4071,19 +5600,19 @@
         <v>5</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
@@ -4097,19 +5626,19 @@
         <v>5</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>401</v>
+        <v>484</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>524</v>
+        <v>376</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>150</v>
       </c>
@@ -4123,19 +5652,19 @@
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>525</v>
+        <v>377</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
@@ -4149,19 +5678,19 @@
         <v>5</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>526</v>
+        <v>378</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -4175,19 +5704,19 @@
         <v>5</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>527</v>
+        <v>379</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>156</v>
       </c>
@@ -4201,19 +5730,19 @@
         <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>528</v>
+        <v>380</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>158</v>
       </c>
@@ -4227,19 +5756,19 @@
         <v>4</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>405</v>
+        <v>489</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>529</v>
+        <v>381</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>160</v>
       </c>
@@ -4253,19 +5782,19 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>530</v>
+        <v>382</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>162</v>
       </c>
@@ -4279,19 +5808,19 @@
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>406</v>
+        <v>491</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>531</v>
+        <v>383</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="297" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -4305,19 +5834,19 @@
         <v>4</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>532</v>
+        <v>384</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
@@ -4331,19 +5860,19 @@
         <v>4</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>533</v>
+        <v>385</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -4357,19 +5886,19 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>534</v>
+        <v>386</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>170</v>
       </c>
@@ -4383,19 +5912,19 @@
         <v>4</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>329</v>
+        <v>495</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="363" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>172</v>
       </c>
@@ -4409,19 +5938,19 @@
         <v>4</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>408</v>
+        <v>496</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>174</v>
       </c>
@@ -4435,19 +5964,19 @@
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>176</v>
       </c>
@@ -4461,19 +5990,19 @@
         <v>4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>536</v>
+        <v>388</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>178</v>
       </c>
@@ -4487,19 +6016,19 @@
         <v>4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>180</v>
       </c>
@@ -4513,19 +6042,19 @@
         <v>4</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>537</v>
+        <v>389</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>182</v>
       </c>
@@ -4539,19 +6068,19 @@
         <v>4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>413</v>
+        <v>501</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>538</v>
+        <v>390</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>184</v>
       </c>
@@ -4565,19 +6094,19 @@
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>539</v>
+        <v>391</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="396" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>186</v>
       </c>
@@ -4591,19 +6120,19 @@
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>540</v>
+        <v>392</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>188</v>
       </c>
@@ -4617,19 +6146,19 @@
         <v>4</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>536</v>
+        <v>388</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
@@ -4643,19 +6172,19 @@
         <v>4</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>417</v>
+        <v>505</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>192</v>
       </c>
@@ -4669,19 +6198,19 @@
         <v>4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>418</v>
+        <v>506</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="363" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -4695,19 +6224,20 @@
         <v>4</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>419</v>
+        <v>507</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>196</v>
       </c>
@@ -4721,19 +6251,19 @@
         <v>4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>198</v>
       </c>
@@ -4747,19 +6277,19 @@
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>421</v>
+        <v>509</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>200</v>
       </c>
@@ -4773,19 +6303,19 @@
         <v>4</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>422</v>
+        <v>510</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>202</v>
       </c>
@@ -4799,19 +6329,19 @@
         <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>423</v>
+        <v>511</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>204</v>
       </c>
@@ -4825,19 +6355,19 @@
         <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>424</v>
+        <v>512</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>206</v>
       </c>
@@ -4851,19 +6381,19 @@
         <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>425</v>
+        <v>513</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>485</v>
+        <v>337</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>207</v>
       </c>
@@ -4877,19 +6407,19 @@
         <v>4</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>542</v>
+        <v>394</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
@@ -4903,19 +6433,19 @@
         <v>4</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>427</v>
+        <v>515</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>211</v>
       </c>
@@ -4929,19 +6459,19 @@
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>428</v>
+        <v>516</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>544</v>
+        <v>396</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>213</v>
       </c>
@@ -4955,19 +6485,19 @@
         <v>4</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="231" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>215</v>
       </c>
@@ -4981,19 +6511,19 @@
         <v>4</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>217</v>
       </c>
@@ -5007,19 +6537,19 @@
         <v>4</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>219</v>
       </c>
@@ -5033,19 +6563,19 @@
         <v>4</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>546</v>
+        <v>398</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>221</v>
       </c>
@@ -5059,19 +6589,19 @@
         <v>4</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>433</v>
+        <v>521</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>223</v>
       </c>
@@ -5085,19 +6615,19 @@
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>339</v>
+        <v>522</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="363" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>225</v>
       </c>
@@ -5111,19 +6641,19 @@
         <v>4</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>227</v>
       </c>
@@ -5137,19 +6667,19 @@
         <v>4</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>229</v>
       </c>
@@ -5163,19 +6693,19 @@
         <v>4</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>340</v>
+        <v>525</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="132" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>231</v>
       </c>
@@ -5189,19 +6719,19 @@
         <v>4</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>233</v>
       </c>
@@ -5215,19 +6745,19 @@
         <v>4</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="264" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>235</v>
       </c>
@@ -5241,19 +6771,19 @@
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>237</v>
       </c>
@@ -5267,19 +6797,19 @@
         <v>4</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>239</v>
       </c>
@@ -5293,19 +6823,19 @@
         <v>4</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>241</v>
       </c>
@@ -5319,19 +6849,19 @@
         <v>4</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="379.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>243</v>
       </c>
@@ -5345,19 +6875,19 @@
         <v>4</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>245</v>
       </c>
@@ -5371,19 +6901,19 @@
         <v>4</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>443</v>
+        <v>533</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>548</v>
+        <v>400</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="264" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>247</v>
       </c>
@@ -5397,19 +6927,19 @@
         <v>3</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>330</v>
+        <v>534</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="214.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>249</v>
       </c>
@@ -5423,19 +6953,19 @@
         <v>3</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>331</v>
+        <v>535</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>251</v>
       </c>
@@ -5449,19 +6979,19 @@
         <v>3</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>332</v>
+        <v>536</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>253</v>
       </c>
@@ -5475,19 +7005,19 @@
         <v>3</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>333</v>
+        <v>537</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>255</v>
       </c>
@@ -5501,19 +7031,19 @@
         <v>3</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>334</v>
+        <v>538</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="297" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>257</v>
       </c>
@@ -5527,19 +7057,19 @@
         <v>3</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>444</v>
+        <v>539</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>259</v>
       </c>
@@ -5553,19 +7083,19 @@
         <v>3</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>335</v>
+        <v>540</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="264" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>261</v>
       </c>
@@ -5579,19 +7109,19 @@
         <v>3</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>336</v>
+        <v>541</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>263</v>
       </c>
@@ -5605,19 +7135,19 @@
         <v>3</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>445</v>
+        <v>542</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>265</v>
       </c>
@@ -5631,19 +7161,19 @@
         <v>2</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>267</v>
       </c>
@@ -5657,19 +7187,19 @@
         <v>2</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>302</v>
+        <v>544</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>269</v>
       </c>
@@ -5683,19 +7213,19 @@
         <v>2</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>303</v>
+        <v>545</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>271</v>
       </c>
@@ -5709,19 +7239,19 @@
         <v>2</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>304</v>
+        <v>546</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>273</v>
       </c>
@@ -5735,19 +7265,19 @@
         <v>2</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>305</v>
+        <v>547</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>275</v>
       </c>
@@ -5761,19 +7291,19 @@
         <v>2</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>306</v>
+        <v>548</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>277</v>
       </c>
@@ -5787,19 +7317,19 @@
         <v>2</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>307</v>
+        <v>549</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>279</v>
       </c>
@@ -5813,19 +7343,19 @@
         <v>2</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>281</v>
       </c>
@@ -5839,19 +7369,19 @@
         <v>2</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>559</v>
+        <v>411</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>283</v>
       </c>
@@ -5865,19 +7395,19 @@
         <v>1</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>309</v>
+        <v>552</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>285</v>
       </c>
@@ -5891,19 +7421,19 @@
         <v>1</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>310</v>
+        <v>553</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>287</v>
       </c>
@@ -5917,19 +7447,19 @@
         <v>1</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>311</v>
+        <v>554</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>289</v>
       </c>
@@ -5943,19 +7473,19 @@
         <v>1</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>312</v>
+        <v>555</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>291</v>
       </c>
@@ -5969,19 +7499,19 @@
         <v>1</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>313</v>
+        <v>556</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>293</v>
       </c>
@@ -5995,19 +7525,19 @@
         <v>1</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>314</v>
+        <v>557</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="132" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>295</v>
       </c>
@@ -6021,19 +7551,19 @@
         <v>1</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>315</v>
+        <v>558</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>297</v>
       </c>
@@ -6047,19 +7577,19 @@
         <v>1</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>447</v>
+        <v>559</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>299</v>
       </c>
@@ -6073,16 +7603,16 @@
         <v>1</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>448</v>
+        <v>560</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>508</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
